--- a/7 Final Item Sets FEB 2019/SPM-2_Infant-Toddler_Items_FINAL.xlsx
+++ b/7 Final Item Sets FEB 2019/SPM-2_Infant-Toddler_Items_FINAL.xlsx
@@ -1,46 +1,58 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Research &amp; Development\Projects\SPM-2\FORMS\7 Final Item Sets FEB 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dherzberg/Desktop/SPM2-R/7 Final Item Sets FEB 2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB1A802-2D5E-410F-B9D9-26022AFAAB41}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9580F928-630E-5D45-84C5-3B11AD6F9169}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="735" windowWidth="18840" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4-9" sheetId="1" r:id="rId1"/>
     <sheet name="10-30" sheetId="4" r:id="rId2"/>
-    <sheet name="Caregiver" sheetId="3" r:id="rId3"/>
-    <sheet name="DELETED ITEMS" sheetId="5" r:id="rId4"/>
+    <sheet name="49 Caregiver" sheetId="3" r:id="rId3"/>
+    <sheet name="1030 Caregiver" sheetId="7" r:id="rId4"/>
+    <sheet name="DELETED ITEMS" sheetId="5" r:id="rId5"/>
+    <sheet name="Scratch" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'10-30'!$A$1:$G$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'1030 Caregiver'!$A$1:$G$81</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'4-9'!$A$1:$G$81</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Caregiver!$A$1:$G$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'49 Caregiver'!$A$1:$G$81</definedName>
     <definedName name="Z_3D544592_D893_4912_8A4C_A9212B9C1328_.wvu.FilterData" localSheetId="1" hidden="1">'10-30'!$A$1:$G$81</definedName>
+    <definedName name="Z_3D544592_D893_4912_8A4C_A9212B9C1328_.wvu.FilterData" localSheetId="3" hidden="1">'1030 Caregiver'!$A$1:$G$81</definedName>
     <definedName name="Z_3D544592_D893_4912_8A4C_A9212B9C1328_.wvu.FilterData" localSheetId="0" hidden="1">'4-9'!$A$1:$G$81</definedName>
-    <definedName name="Z_3D544592_D893_4912_8A4C_A9212B9C1328_.wvu.FilterData" localSheetId="2" hidden="1">Caregiver!$A$1:$G$81</definedName>
+    <definedName name="Z_3D544592_D893_4912_8A4C_A9212B9C1328_.wvu.FilterData" localSheetId="2" hidden="1">'49 Caregiver'!$A$1:$G$81</definedName>
     <definedName name="Z_7283F7E0_0B2D_4F5B_B955_ADB97BAFC841_.wvu.FilterData" localSheetId="1" hidden="1">'10-30'!$A$1:$G$81</definedName>
+    <definedName name="Z_7283F7E0_0B2D_4F5B_B955_ADB97BAFC841_.wvu.FilterData" localSheetId="3" hidden="1">'1030 Caregiver'!$A$1:$G$81</definedName>
     <definedName name="Z_7283F7E0_0B2D_4F5B_B955_ADB97BAFC841_.wvu.FilterData" localSheetId="0" hidden="1">'4-9'!$A$1:$G$81</definedName>
-    <definedName name="Z_7283F7E0_0B2D_4F5B_B955_ADB97BAFC841_.wvu.FilterData" localSheetId="2" hidden="1">Caregiver!$A$1:$G$81</definedName>
+    <definedName name="Z_7283F7E0_0B2D_4F5B_B955_ADB97BAFC841_.wvu.FilterData" localSheetId="2" hidden="1">'49 Caregiver'!$A$1:$G$81</definedName>
     <definedName name="Z_E395C88E_3BA8_B344_A1BC_A46BF8755BD3_.wvu.Cols" localSheetId="1" hidden="1">'10-30'!$C:$C</definedName>
+    <definedName name="Z_E395C88E_3BA8_B344_A1BC_A46BF8755BD3_.wvu.Cols" localSheetId="3" hidden="1">'1030 Caregiver'!$C:$C</definedName>
     <definedName name="Z_E395C88E_3BA8_B344_A1BC_A46BF8755BD3_.wvu.Cols" localSheetId="0" hidden="1">'4-9'!$C:$C</definedName>
-    <definedName name="Z_E395C88E_3BA8_B344_A1BC_A46BF8755BD3_.wvu.Cols" localSheetId="2" hidden="1">Caregiver!$C:$C</definedName>
+    <definedName name="Z_E395C88E_3BA8_B344_A1BC_A46BF8755BD3_.wvu.Cols" localSheetId="2" hidden="1">'49 Caregiver'!$C:$C</definedName>
   </definedNames>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="John Williams - Personal View" guid="{3D544592-D893-4912-8A4C-A9212B9C1328}" mergeInterval="0" personalView="1" maximized="1" xWindow="1672" yWindow="-8" windowWidth="1696" windowHeight="1066" activeSheetId="2"/>
+    <customWorkbookView name="XXXXX - Personal View" guid="{7283F7E0-0B2D-4F5B-B955-ADB97BAFC841}" mergeInterval="0" personalView="1" xWindow="52" yWindow="74" windowWidth="1858" windowHeight="946" activeSheetId="1"/>
     <customWorkbookView name="Microsoft Office User - Personal View" guid="{E395C88E-3BA8-B344-A1BC-A46BF8755BD3}" mergeInterval="0" personalView="1" minimized="1" windowWidth="0" windowHeight="0" activeSheetId="2"/>
-    <customWorkbookView name="XXXXX - Personal View" guid="{7283F7E0-0B2D-4F5B-B955-ADB97BAFC841}" mergeInterval="0" personalView="1" xWindow="52" yWindow="74" windowWidth="1858" windowHeight="946" activeSheetId="1"/>
-    <customWorkbookView name="John Williams - Personal View" guid="{3D544592-D893-4912-8A4C-A9212B9C1328}" mergeInterval="0" personalView="1" maximized="1" xWindow="1672" yWindow="-8" windowWidth="1696" windowHeight="1066" activeSheetId="2"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -50,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1865" uniqueCount="542">
   <si>
     <t>REF</t>
   </si>
@@ -1340,330 +1352,90 @@
     <t>q0126</t>
   </si>
   <si>
-    <t>QT1</t>
-  </si>
-  <si>
-    <t>QT2</t>
-  </si>
-  <si>
     <t>QT3</t>
   </si>
   <si>
-    <t>QT4</t>
-  </si>
-  <si>
-    <t>QT5</t>
-  </si>
-  <si>
-    <t>QT6</t>
-  </si>
-  <si>
-    <t>QT7</t>
-  </si>
-  <si>
     <t>QT8</t>
   </si>
   <si>
     <t>QT9</t>
   </si>
   <si>
-    <t>QT10</t>
-  </si>
-  <si>
-    <t>QT11</t>
-  </si>
-  <si>
-    <t>QT12</t>
-  </si>
-  <si>
-    <t>QT13</t>
-  </si>
-  <si>
-    <t>QT14</t>
-  </si>
-  <si>
-    <t>QT15</t>
-  </si>
-  <si>
     <t>QT16</t>
   </si>
   <si>
-    <t>QT17</t>
-  </si>
-  <si>
-    <t>QT18</t>
-  </si>
-  <si>
-    <t>QT19</t>
-  </si>
-  <si>
-    <t>QT20</t>
-  </si>
-  <si>
-    <t>QT21</t>
-  </si>
-  <si>
     <t>QT22</t>
   </si>
   <si>
-    <t>QT23</t>
-  </si>
-  <si>
     <t>QT24</t>
   </si>
   <si>
-    <t>QT25</t>
-  </si>
-  <si>
-    <t>QT26</t>
-  </si>
-  <si>
-    <t>QT27</t>
-  </si>
-  <si>
-    <t>QT28</t>
-  </si>
-  <si>
     <t>QT29</t>
   </si>
   <si>
-    <t>QT30</t>
-  </si>
-  <si>
-    <t>QT31</t>
-  </si>
-  <si>
-    <t>QT32</t>
-  </si>
-  <si>
-    <t>QT33</t>
-  </si>
-  <si>
-    <t>QT34</t>
-  </si>
-  <si>
-    <t>QT35</t>
-  </si>
-  <si>
     <t>QT36</t>
   </si>
   <si>
-    <t>QT37</t>
-  </si>
-  <si>
     <t>QT38</t>
   </si>
   <si>
-    <t>QT39</t>
-  </si>
-  <si>
     <t>QT40</t>
   </si>
   <si>
-    <t>QT41</t>
-  </si>
-  <si>
     <t>QT42</t>
   </si>
   <si>
-    <t>QT43</t>
-  </si>
-  <si>
     <t>QT44</t>
   </si>
   <si>
-    <t>QT45</t>
-  </si>
-  <si>
-    <t>QT46</t>
-  </si>
-  <si>
-    <t>QT47</t>
-  </si>
-  <si>
-    <t>QT48</t>
-  </si>
-  <si>
-    <t>QT49</t>
-  </si>
-  <si>
-    <t>QT50</t>
-  </si>
-  <si>
-    <t>QT51</t>
-  </si>
-  <si>
     <t>QT52</t>
   </si>
   <si>
     <t>QT53</t>
   </si>
   <si>
-    <t>QT54</t>
-  </si>
-  <si>
-    <t>QT55</t>
-  </si>
-  <si>
-    <t>QT56</t>
-  </si>
-  <si>
-    <t>QT57</t>
-  </si>
-  <si>
     <t>QT58</t>
   </si>
   <si>
     <t>QT59</t>
   </si>
   <si>
-    <t>QT60</t>
-  </si>
-  <si>
     <t>QT61</t>
   </si>
   <si>
-    <t>QT62</t>
-  </si>
-  <si>
     <t>QT63</t>
   </si>
   <si>
     <t>QT64</t>
   </si>
   <si>
-    <t>QT65</t>
-  </si>
-  <si>
-    <t>QT66</t>
-  </si>
-  <si>
-    <t>QT67</t>
-  </si>
-  <si>
-    <t>QT68</t>
-  </si>
-  <si>
-    <t>QT69</t>
-  </si>
-  <si>
     <t>QT70</t>
   </si>
   <si>
-    <t>QT71</t>
-  </si>
-  <si>
-    <t>QT72</t>
-  </si>
-  <si>
-    <t>QT73</t>
-  </si>
-  <si>
-    <t>QT74</t>
-  </si>
-  <si>
-    <t>QT75</t>
-  </si>
-  <si>
-    <t>QT76</t>
-  </si>
-  <si>
-    <t>QT77</t>
-  </si>
-  <si>
-    <t>QT78</t>
-  </si>
-  <si>
-    <t>QT79</t>
-  </si>
-  <si>
     <t>QT80</t>
   </si>
   <si>
-    <t>QT81</t>
-  </si>
-  <si>
     <t>QT82</t>
   </si>
   <si>
-    <t>QT83</t>
-  </si>
-  <si>
     <t>QT84</t>
   </si>
   <si>
-    <t>QT85</t>
-  </si>
-  <si>
-    <t>QT86</t>
-  </si>
-  <si>
-    <t>QT87</t>
-  </si>
-  <si>
     <t>QT88</t>
   </si>
   <si>
-    <t>QT89</t>
-  </si>
-  <si>
     <t>QT90</t>
   </si>
   <si>
-    <t>QT91</t>
-  </si>
-  <si>
-    <t>QT92</t>
-  </si>
-  <si>
-    <t>QT93</t>
-  </si>
-  <si>
-    <t>QT94</t>
-  </si>
-  <si>
-    <t>QT95</t>
-  </si>
-  <si>
-    <t>QT96</t>
-  </si>
-  <si>
-    <t>QT97</t>
-  </si>
-  <si>
-    <t>QT98</t>
-  </si>
-  <si>
     <t>QT99</t>
   </si>
   <si>
-    <t>QT100</t>
-  </si>
-  <si>
-    <t>QT101</t>
-  </si>
-  <si>
     <t>QT102</t>
   </si>
   <si>
-    <t>QT103</t>
-  </si>
-  <si>
     <t>QT104</t>
   </si>
   <si>
-    <t>QT105</t>
-  </si>
-  <si>
-    <t>QT106</t>
-  </si>
-  <si>
-    <t>QT107</t>
-  </si>
-  <si>
-    <t>QT108</t>
-  </si>
-  <si>
     <t>4-9 MONTH</t>
   </si>
   <si>
@@ -1671,15 +1443,319 @@
   </si>
   <si>
     <t>CAREGIVER</t>
+  </si>
+  <si>
+    <t>q0127</t>
+  </si>
+  <si>
+    <t>q0128</t>
+  </si>
+  <si>
+    <t>q0129</t>
+  </si>
+  <si>
+    <t>q0130</t>
+  </si>
+  <si>
+    <t>q0132</t>
+  </si>
+  <si>
+    <t>q0133</t>
+  </si>
+  <si>
+    <t>q0134</t>
+  </si>
+  <si>
+    <t>q0135</t>
+  </si>
+  <si>
+    <t>q0136</t>
+  </si>
+  <si>
+    <t>q0137</t>
+  </si>
+  <si>
+    <t>q0138</t>
+  </si>
+  <si>
+    <t>q0139</t>
+  </si>
+  <si>
+    <t>q0140</t>
+  </si>
+  <si>
+    <t>q0141</t>
+  </si>
+  <si>
+    <t>q0142</t>
+  </si>
+  <si>
+    <t>q0143</t>
+  </si>
+  <si>
+    <t>q0145</t>
+  </si>
+  <si>
+    <t>q0146</t>
+  </si>
+  <si>
+    <t>q0147</t>
+  </si>
+  <si>
+    <t>q0148</t>
+  </si>
+  <si>
+    <t>q0149</t>
+  </si>
+  <si>
+    <t>q0150</t>
+  </si>
+  <si>
+    <t>q0151</t>
+  </si>
+  <si>
+    <t>q0152</t>
+  </si>
+  <si>
+    <t>q0153</t>
+  </si>
+  <si>
+    <t>q0154</t>
+  </si>
+  <si>
+    <t>q0155</t>
+  </si>
+  <si>
+    <t>q0156</t>
+  </si>
+  <si>
+    <t>q0157</t>
+  </si>
+  <si>
+    <t>q0158</t>
+  </si>
+  <si>
+    <t>q0159</t>
+  </si>
+  <si>
+    <t>q0160</t>
+  </si>
+  <si>
+    <t>q0161</t>
+  </si>
+  <si>
+    <t>q0162</t>
+  </si>
+  <si>
+    <t>q0163</t>
+  </si>
+  <si>
+    <t>q0165</t>
+  </si>
+  <si>
+    <t>q0167</t>
+  </si>
+  <si>
+    <t>q0168</t>
+  </si>
+  <si>
+    <t>q0169</t>
+  </si>
+  <si>
+    <t>q0170</t>
+  </si>
+  <si>
+    <t>q0171</t>
+  </si>
+  <si>
+    <t>q0172</t>
+  </si>
+  <si>
+    <t>q0173</t>
+  </si>
+  <si>
+    <t>q0174</t>
+  </si>
+  <si>
+    <t>q0175</t>
+  </si>
+  <si>
+    <t>q0176</t>
+  </si>
+  <si>
+    <t>q0177</t>
+  </si>
+  <si>
+    <t>q0178</t>
+  </si>
+  <si>
+    <t>q0179</t>
+  </si>
+  <si>
+    <t>q0182</t>
+  </si>
+  <si>
+    <t>q0183</t>
+  </si>
+  <si>
+    <t>q0184</t>
+  </si>
+  <si>
+    <t>q0185</t>
+  </si>
+  <si>
+    <t>q0187</t>
+  </si>
+  <si>
+    <t>q0188</t>
+  </si>
+  <si>
+    <t>q0189</t>
+  </si>
+  <si>
+    <t>q0190</t>
+  </si>
+  <si>
+    <t>q0191</t>
+  </si>
+  <si>
+    <t>q0193</t>
+  </si>
+  <si>
+    <t>q0194</t>
+  </si>
+  <si>
+    <t>q0195</t>
+  </si>
+  <si>
+    <t>q0196</t>
+  </si>
+  <si>
+    <t>q0197</t>
+  </si>
+  <si>
+    <t>q0198</t>
+  </si>
+  <si>
+    <t>q0199</t>
+  </si>
+  <si>
+    <t>q0200</t>
+  </si>
+  <si>
+    <t>q0201</t>
+  </si>
+  <si>
+    <t>q0202</t>
+  </si>
+  <si>
+    <t>q0203</t>
+  </si>
+  <si>
+    <t>q0204</t>
+  </si>
+  <si>
+    <t>q0205</t>
+  </si>
+  <si>
+    <t>q0206</t>
+  </si>
+  <si>
+    <t>q0207</t>
+  </si>
+  <si>
+    <t>q0208</t>
+  </si>
+  <si>
+    <t>q0209</t>
+  </si>
+  <si>
+    <t>q0211</t>
+  </si>
+  <si>
+    <t>q0213</t>
+  </si>
+  <si>
+    <t>q0214</t>
+  </si>
+  <si>
+    <t>q0215</t>
+  </si>
+  <si>
+    <t>q0216</t>
+  </si>
+  <si>
+    <t>q0217</t>
+  </si>
+  <si>
+    <t>q0218</t>
+  </si>
+  <si>
+    <t>q0219</t>
+  </si>
+  <si>
+    <t>q0220</t>
+  </si>
+  <si>
+    <t>q0221</t>
+  </si>
+  <si>
+    <t>q0222</t>
+  </si>
+  <si>
+    <t>q0223</t>
+  </si>
+  <si>
+    <t>q0224</t>
+  </si>
+  <si>
+    <t>q0225</t>
+  </si>
+  <si>
+    <t>q0226</t>
+  </si>
+  <si>
+    <t>q0227</t>
+  </si>
+  <si>
+    <t>q0228</t>
+  </si>
+  <si>
+    <t>q0229</t>
+  </si>
+  <si>
+    <t>q0230</t>
+  </si>
+  <si>
+    <t>q0231</t>
+  </si>
+  <si>
+    <t>q0233</t>
+  </si>
+  <si>
+    <t>q0234</t>
+  </si>
+  <si>
+    <t>q0235</t>
+  </si>
+  <si>
+    <t>q0236</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1947,13 +2023,13 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1962,34 +2038,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1998,326 +2074,314 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -2630,23 +2694,23 @@
   </sheetPr>
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" style="13" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" style="28" customWidth="1"/>
-    <col min="4" max="5" width="5.7109375" style="13" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" style="28" customWidth="1"/>
+    <col min="4" max="5" width="5.6640625" style="13" customWidth="1"/>
     <col min="6" max="6" width="11" style="13" customWidth="1"/>
-    <col min="7" max="7" width="104.140625" style="56" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="12"/>
+    <col min="7" max="7" width="104.1640625" style="56" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickBot="1">
+    <row r="1" spans="1:7" ht="18" thickBot="1">
       <c r="A1" s="101" t="s">
         <v>0</v>
       </c>
@@ -2669,7 +2733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75">
+    <row r="2" spans="1:7" ht="17">
       <c r="A2" s="108">
         <v>1</v>
       </c>
@@ -2692,7 +2756,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75">
+    <row r="3" spans="1:7" ht="17">
       <c r="A3" s="110">
         <v>2</v>
       </c>
@@ -2715,7 +2779,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75">
+    <row r="4" spans="1:7" ht="17">
       <c r="A4" s="110">
         <v>3</v>
       </c>
@@ -2738,7 +2802,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75">
+    <row r="5" spans="1:7" ht="17">
       <c r="A5" s="110">
         <v>4</v>
       </c>
@@ -2761,7 +2825,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75">
+    <row r="6" spans="1:7" ht="17">
       <c r="A6" s="110">
         <v>5</v>
       </c>
@@ -2784,7 +2848,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75">
+    <row r="7" spans="1:7" ht="17">
       <c r="A7" s="110">
         <v>6</v>
       </c>
@@ -2807,7 +2871,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75">
+    <row r="8" spans="1:7" ht="17">
       <c r="A8" s="110">
         <v>7</v>
       </c>
@@ -2830,7 +2894,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75">
+    <row r="9" spans="1:7" ht="17">
       <c r="A9" s="110">
         <v>8</v>
       </c>
@@ -2853,7 +2917,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75">
+    <row r="10" spans="1:7" ht="17">
       <c r="A10" s="110">
         <v>10</v>
       </c>
@@ -2876,7 +2940,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.5" thickBot="1">
+    <row r="11" spans="1:7" ht="18" thickBot="1">
       <c r="A11" s="112">
         <v>14</v>
       </c>
@@ -2899,7 +2963,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75">
+    <row r="12" spans="1:7" ht="17">
       <c r="A12" s="108">
         <v>17</v>
       </c>
@@ -2920,7 +2984,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75">
+    <row r="13" spans="1:7" ht="17">
       <c r="A13" s="110">
         <v>18</v>
       </c>
@@ -2941,7 +3005,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75">
+    <row r="14" spans="1:7" ht="17">
       <c r="A14" s="110">
         <v>19</v>
       </c>
@@ -2962,7 +3026,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75">
+    <row r="15" spans="1:7" ht="17">
       <c r="A15" s="110">
         <v>20</v>
       </c>
@@ -2983,7 +3047,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75">
+    <row r="16" spans="1:7" ht="17">
       <c r="A16" s="110">
         <v>21</v>
       </c>
@@ -3004,7 +3068,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75">
+    <row r="17" spans="1:7" ht="17">
       <c r="A17" s="110">
         <v>22</v>
       </c>
@@ -3025,7 +3089,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75">
+    <row r="18" spans="1:7" ht="17">
       <c r="A18" s="110">
         <v>23</v>
       </c>
@@ -3046,7 +3110,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75">
+    <row r="19" spans="1:7" ht="17">
       <c r="A19" s="110">
         <v>26</v>
       </c>
@@ -3067,7 +3131,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75">
+    <row r="20" spans="1:7" ht="17">
       <c r="A20" s="110">
         <v>28</v>
       </c>
@@ -3088,7 +3152,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16.5" thickBot="1">
+    <row r="21" spans="1:7" ht="18" thickBot="1">
       <c r="A21" s="112">
         <v>29</v>
       </c>
@@ -3109,7 +3173,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75">
+    <row r="22" spans="1:7" ht="17">
       <c r="A22" s="108">
         <v>30</v>
       </c>
@@ -3130,7 +3194,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75">
+    <row r="23" spans="1:7" ht="17">
       <c r="A23" s="110">
         <v>31</v>
       </c>
@@ -3151,7 +3215,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75">
+    <row r="24" spans="1:7" ht="17">
       <c r="A24" s="110">
         <v>33</v>
       </c>
@@ -3172,7 +3236,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75">
+    <row r="25" spans="1:7" ht="17">
       <c r="A25" s="110">
         <v>35</v>
       </c>
@@ -3193,7 +3257,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75">
+    <row r="26" spans="1:7" ht="17">
       <c r="A26" s="110">
         <v>36</v>
       </c>
@@ -3214,7 +3278,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75">
+    <row r="27" spans="1:7" ht="17">
       <c r="A27" s="110">
         <v>37</v>
       </c>
@@ -3235,7 +3299,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75">
+    <row r="28" spans="1:7" ht="17">
       <c r="A28" s="110">
         <v>38</v>
       </c>
@@ -3256,7 +3320,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75">
+    <row r="29" spans="1:7" ht="17">
       <c r="A29" s="110">
         <v>39</v>
       </c>
@@ -3277,7 +3341,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="30" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A30" s="110">
         <v>40</v>
       </c>
@@ -3298,7 +3362,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="16.5" thickBot="1">
+    <row r="31" spans="1:7" ht="18" thickBot="1">
       <c r="A31" s="112">
         <v>41</v>
       </c>
@@ -3319,7 +3383,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="31.5">
+    <row r="32" spans="1:7" ht="17">
       <c r="A32" s="108">
         <v>43</v>
       </c>
@@ -3340,7 +3404,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.75">
+    <row r="33" spans="1:7" ht="17">
       <c r="A33" s="110">
         <v>44</v>
       </c>
@@ -3361,7 +3425,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15.75">
+    <row r="34" spans="1:7" ht="17">
       <c r="A34" s="110">
         <v>45</v>
       </c>
@@ -3382,7 +3446,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15.75">
+    <row r="35" spans="1:7" ht="17">
       <c r="A35" s="110">
         <v>46</v>
       </c>
@@ -3403,7 +3467,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15.75">
+    <row r="36" spans="1:7" ht="17">
       <c r="A36" s="110">
         <v>48</v>
       </c>
@@ -3424,7 +3488,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15.75">
+    <row r="37" spans="1:7" ht="17">
       <c r="A37" s="110">
         <v>49</v>
       </c>
@@ -3445,7 +3509,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15.75">
+    <row r="38" spans="1:7" ht="17">
       <c r="A38" s="110">
         <v>52</v>
       </c>
@@ -3466,7 +3530,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15.75">
+    <row r="39" spans="1:7" ht="17">
       <c r="A39" s="110">
         <v>54</v>
       </c>
@@ -3487,7 +3551,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15.75">
+    <row r="40" spans="1:7" ht="17">
       <c r="A40" s="110">
         <v>56</v>
       </c>
@@ -3508,7 +3572,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="16.5" thickBot="1">
+    <row r="41" spans="1:7" ht="18" thickBot="1">
       <c r="A41" s="112">
         <v>57</v>
       </c>
@@ -3529,7 +3593,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15.75">
+    <row r="42" spans="1:7" ht="17">
       <c r="A42" s="108">
         <v>58</v>
       </c>
@@ -3552,7 +3616,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="43" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A43" s="110">
         <v>59</v>
       </c>
@@ -3575,7 +3639,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15.75">
+    <row r="44" spans="1:7" ht="17">
       <c r="A44" s="110">
         <v>61</v>
       </c>
@@ -3598,7 +3662,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15.75">
+    <row r="45" spans="1:7" ht="17">
       <c r="A45" s="110">
         <v>63</v>
       </c>
@@ -3621,7 +3685,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15.75">
+    <row r="46" spans="1:7" ht="17">
       <c r="A46" s="110">
         <v>64</v>
       </c>
@@ -3644,7 +3708,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="15.75">
+    <row r="47" spans="1:7" ht="17">
       <c r="A47" s="110">
         <v>65</v>
       </c>
@@ -3667,7 +3731,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15.75">
+    <row r="48" spans="1:7" ht="17">
       <c r="A48" s="110">
         <v>66</v>
       </c>
@@ -3690,7 +3754,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15.75">
+    <row r="49" spans="1:7" ht="17">
       <c r="A49" s="110">
         <v>67</v>
       </c>
@@ -3713,7 +3777,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15.75">
+    <row r="50" spans="1:7" ht="17">
       <c r="A50" s="110">
         <v>68</v>
       </c>
@@ -3736,7 +3800,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="16.5" thickBot="1">
+    <row r="51" spans="1:7" ht="18" thickBot="1">
       <c r="A51" s="112">
         <v>69</v>
       </c>
@@ -3759,7 +3823,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15.75">
+    <row r="52" spans="1:7" ht="17">
       <c r="A52" s="108">
         <v>71</v>
       </c>
@@ -3780,7 +3844,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="15.75">
+    <row r="53" spans="1:7" ht="17">
       <c r="A53" s="110">
         <v>72</v>
       </c>
@@ -3801,7 +3865,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15.75">
+    <row r="54" spans="1:7" ht="17">
       <c r="A54" s="110">
         <v>74</v>
       </c>
@@ -3822,7 +3886,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="15.75">
+    <row r="55" spans="1:7" ht="17">
       <c r="A55" s="110">
         <v>75</v>
       </c>
@@ -3843,7 +3907,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15.75">
+    <row r="56" spans="1:7" ht="17">
       <c r="A56" s="110">
         <v>76</v>
       </c>
@@ -3864,7 +3928,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="15.75">
+    <row r="57" spans="1:7" ht="17">
       <c r="A57" s="110">
         <v>78</v>
       </c>
@@ -3885,7 +3949,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="15.75">
+    <row r="58" spans="1:7" ht="17">
       <c r="A58" s="110">
         <v>79</v>
       </c>
@@ -3906,7 +3970,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="15.75">
+    <row r="59" spans="1:7" ht="17">
       <c r="A59" s="110">
         <v>80</v>
       </c>
@@ -3927,7 +3991,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15.75">
+    <row r="60" spans="1:7" ht="17">
       <c r="A60" s="110">
         <v>81</v>
       </c>
@@ -3948,7 +4012,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="16.5" thickBot="1">
+    <row r="61" spans="1:7" ht="18" thickBot="1">
       <c r="A61" s="112">
         <v>82</v>
       </c>
@@ -3969,7 +4033,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="15.75">
+    <row r="62" spans="1:7" ht="17">
       <c r="A62" s="108">
         <v>83</v>
       </c>
@@ -3990,7 +4054,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="15.75">
+    <row r="63" spans="1:7" ht="17">
       <c r="A63" s="110">
         <v>84</v>
       </c>
@@ -4011,7 +4075,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="15.75">
+    <row r="64" spans="1:7" ht="17">
       <c r="A64" s="110">
         <v>86</v>
       </c>
@@ -4032,7 +4096,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="65" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="65" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A65" s="110">
         <v>88</v>
       </c>
@@ -4053,7 +4117,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="15.75">
+    <row r="66" spans="1:7" ht="17">
       <c r="A66" s="110">
         <v>89</v>
       </c>
@@ -4074,7 +4138,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="15.75">
+    <row r="67" spans="1:7" ht="17">
       <c r="A67" s="110">
         <v>91</v>
       </c>
@@ -4095,7 +4159,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="15.75">
+    <row r="68" spans="1:7" ht="17">
       <c r="A68" s="110">
         <v>92</v>
       </c>
@@ -4116,7 +4180,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="15.75">
+    <row r="69" spans="1:7" ht="17">
       <c r="A69" s="110">
         <v>93</v>
       </c>
@@ -4137,7 +4201,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="15.75">
+    <row r="70" spans="1:7" ht="17">
       <c r="A70" s="110">
         <v>95</v>
       </c>
@@ -4158,7 +4222,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="16.5" thickBot="1">
+    <row r="71" spans="1:7" ht="18" thickBot="1">
       <c r="A71" s="112">
         <v>96</v>
       </c>
@@ -4179,7 +4243,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="15.75">
+    <row r="72" spans="1:7" ht="17">
       <c r="A72" s="108">
         <v>100</v>
       </c>
@@ -4200,7 +4264,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="15.75">
+    <row r="73" spans="1:7" ht="17">
       <c r="A73" s="110">
         <v>101</v>
       </c>
@@ -4221,7 +4285,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="15.75">
+    <row r="74" spans="1:7" ht="17">
       <c r="A74" s="110">
         <v>102</v>
       </c>
@@ -4242,7 +4306,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="15.75">
+    <row r="75" spans="1:7" ht="17">
       <c r="A75" s="110">
         <v>104</v>
       </c>
@@ -4263,7 +4327,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="15.75">
+    <row r="76" spans="1:7" ht="17">
       <c r="A76" s="110">
         <v>105</v>
       </c>
@@ -4284,7 +4348,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="15.75">
+    <row r="77" spans="1:7" ht="17">
       <c r="A77" s="110">
         <v>106</v>
       </c>
@@ -4305,7 +4369,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="15.75">
+    <row r="78" spans="1:7" ht="17">
       <c r="A78" s="110">
         <v>107</v>
       </c>
@@ -4326,7 +4390,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="15.75">
+    <row r="79" spans="1:7" ht="17">
       <c r="A79" s="110">
         <v>108</v>
       </c>
@@ -4347,7 +4411,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="15.75">
+    <row r="80" spans="1:7" ht="17">
       <c r="A80" s="110">
         <v>109</v>
       </c>
@@ -4368,7 +4432,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="16.5" thickBot="1">
+    <row r="81" spans="1:7" ht="18" thickBot="1">
       <c r="A81" s="112">
         <v>110</v>
       </c>
@@ -4391,13 +4455,14 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G111">
-    <sortCondition sortBy="cellColor" ref="G2:G111" dxfId="4"/>
+    <sortCondition sortBy="cellColor" ref="G2:G111" dxfId="2"/>
   </sortState>
   <customSheetViews>
-    <customSheetView guid="{E395C88E-3BA8-B344-A1BC-A46BF8755BD3}" fitToPage="1" hiddenColumns="1" topLeftCell="A55">
-      <selection activeCell="F78" sqref="F78"/>
+    <customSheetView guid="{3D544592-D893-4912-8A4C-A9212B9C1328}" fitToPage="1">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1:L1048576"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <pageSetup scale="64" fitToHeight="4" orientation="landscape" r:id="rId1"/>
+      <pageSetup scale="80" fitToHeight="4" orientation="landscape" r:id="rId1"/>
     </customSheetView>
     <customSheetView guid="{7283F7E0-0B2D-4F5B-B955-ADB97BAFC841}" fitToPage="1" showAutoFilter="1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
@@ -4410,14 +4475,13 @@
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{3D544592-D893-4912-8A4C-A9212B9C1328}" fitToPage="1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1:L1048576"/>
+    <customSheetView guid="{E395C88E-3BA8-B344-A1BC-A46BF8755BD3}" fitToPage="1" hiddenColumns="1" topLeftCell="A55">
+      <selection activeCell="F78" sqref="F78"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <pageSetup scale="80" fitToHeight="4" orientation="landscape" r:id="rId3"/>
+      <pageSetup scale="64" fitToHeight="4" orientation="landscape" r:id="rId3"/>
     </customSheetView>
   </customSheetViews>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="80" fitToHeight="4" orientation="landscape" r:id="rId4"/>
 </worksheet>
@@ -4430,24 +4494,24 @@
   </sheetPr>
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
+    <sheetView zoomScale="170" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="F72" sqref="F72:F81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" style="27" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="98.28515625" style="61" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="5.6640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" style="27" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="98.33203125" style="61" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="12" customFormat="1" ht="16.5" thickBot="1">
+    <row r="1" spans="1:7" s="12" customFormat="1" ht="18" thickBot="1">
       <c r="A1" s="101" t="s">
         <v>0</v>
       </c>
@@ -4470,7 +4534,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="2" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A2" s="19">
         <v>1</v>
       </c>
@@ -4493,7 +4557,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="3" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A3" s="20">
         <v>2</v>
       </c>
@@ -4516,7 +4580,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="4" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A4" s="20">
         <v>3</v>
       </c>
@@ -4539,7 +4603,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="5" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A5" s="20">
         <v>4</v>
       </c>
@@ -4562,7 +4626,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="6" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A6" s="20">
         <v>5</v>
       </c>
@@ -4585,7 +4649,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="7" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A7" s="20">
         <v>6</v>
       </c>
@@ -4608,7 +4672,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="8" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A8" s="20">
         <v>7</v>
       </c>
@@ -4631,7 +4695,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="9" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A9" s="20">
         <v>8</v>
       </c>
@@ -4654,7 +4718,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="10" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A10" s="20">
         <v>9</v>
       </c>
@@ -4677,7 +4741,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="5" customFormat="1" ht="16.5" thickBot="1">
+    <row r="11" spans="1:7" s="5" customFormat="1" ht="18" thickBot="1">
       <c r="A11" s="119">
         <v>12</v>
       </c>
@@ -4700,7 +4764,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:7" customFormat="1" ht="15.75">
+    <row r="12" spans="1:7" customFormat="1" ht="17">
       <c r="A12" s="19">
         <v>14</v>
       </c>
@@ -4721,7 +4785,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="13" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A13" s="20">
         <v>15</v>
       </c>
@@ -4742,7 +4806,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="14" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A14" s="20">
         <v>16</v>
       </c>
@@ -4763,7 +4827,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="15" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A15" s="20">
         <v>17</v>
       </c>
@@ -4784,7 +4848,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="16" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A16" s="20">
         <v>18</v>
       </c>
@@ -4805,7 +4869,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="17" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A17" s="20">
         <v>19</v>
       </c>
@@ -4826,7 +4890,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="18" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A18" s="20">
         <v>22</v>
       </c>
@@ -4847,7 +4911,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="19" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A19" s="20">
         <v>24</v>
       </c>
@@ -4868,7 +4932,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="20" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A20" s="20">
         <v>25</v>
       </c>
@@ -4889,7 +4953,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="5" customFormat="1" ht="16.5" thickBot="1">
+    <row r="21" spans="1:7" s="5" customFormat="1" ht="18" thickBot="1">
       <c r="A21" s="119">
         <v>26</v>
       </c>
@@ -4910,7 +4974,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="22" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A22" s="19">
         <v>27</v>
       </c>
@@ -4931,7 +4995,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="23" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A23" s="20">
         <v>28</v>
       </c>
@@ -4952,7 +5016,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="24" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A24" s="20">
         <v>29</v>
       </c>
@@ -4973,7 +5037,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="25" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A25" s="20">
         <v>30</v>
       </c>
@@ -4994,7 +5058,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="5" customFormat="1" ht="31.5">
+    <row r="26" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A26" s="20">
         <v>31</v>
       </c>
@@ -5015,7 +5079,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="12" customFormat="1" ht="15.75">
+    <row r="27" spans="1:7" s="12" customFormat="1" ht="17">
       <c r="A27" s="20">
         <v>32</v>
       </c>
@@ -5036,7 +5100,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="28" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A28" s="20">
         <v>33</v>
       </c>
@@ -5057,7 +5121,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="29" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A29" s="20">
         <v>34</v>
       </c>
@@ -5078,7 +5142,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="30" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A30" s="20">
         <v>35</v>
       </c>
@@ -5099,7 +5163,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="5" customFormat="1" ht="16.5" thickBot="1">
+    <row r="31" spans="1:7" s="5" customFormat="1" ht="18" thickBot="1">
       <c r="A31" s="119">
         <v>36</v>
       </c>
@@ -5120,7 +5184,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="32" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A32" s="19">
         <v>42</v>
       </c>
@@ -5141,7 +5205,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="33" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A33" s="20">
         <v>44</v>
       </c>
@@ -5162,7 +5226,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="34" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A34" s="20">
         <v>45</v>
       </c>
@@ -5183,7 +5247,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="35" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A35" s="20">
         <v>46</v>
       </c>
@@ -5204,7 +5268,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="36" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A36" s="20">
         <v>51</v>
       </c>
@@ -5225,7 +5289,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="37" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A37" s="20">
         <v>52</v>
       </c>
@@ -5246,7 +5310,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="38" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A38" s="20">
         <v>53</v>
       </c>
@@ -5267,7 +5331,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="39" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A39" s="20">
         <v>56</v>
       </c>
@@ -5288,7 +5352,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="40" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A40" s="20">
         <v>57</v>
       </c>
@@ -5309,7 +5373,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="5" customFormat="1" ht="16.5" thickBot="1">
+    <row r="41" spans="1:7" s="5" customFormat="1" ht="18" thickBot="1">
       <c r="A41" s="119">
         <v>58</v>
       </c>
@@ -5330,7 +5394,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="42" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A42" s="19">
         <v>59</v>
       </c>
@@ -5353,7 +5417,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="43" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A43" s="20">
         <v>61</v>
       </c>
@@ -5376,7 +5440,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="44" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A44" s="20">
         <v>63</v>
       </c>
@@ -5399,7 +5463,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="45" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A45" s="20">
         <v>65</v>
       </c>
@@ -5422,7 +5486,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="46" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A46" s="20">
         <v>66</v>
       </c>
@@ -5445,7 +5509,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="47" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A47" s="20">
         <v>67</v>
       </c>
@@ -5468,7 +5532,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="48" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A48" s="20">
         <v>69</v>
       </c>
@@ -5491,7 +5555,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="49" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A49" s="20">
         <v>70</v>
       </c>
@@ -5514,7 +5578,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="50" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A50" s="20">
         <v>71</v>
       </c>
@@ -5537,7 +5601,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="5" customFormat="1" ht="16.5" thickBot="1">
+    <row r="51" spans="1:7" s="5" customFormat="1" ht="18" thickBot="1">
       <c r="A51" s="119">
         <v>72</v>
       </c>
@@ -5560,7 +5624,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="52" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A52" s="19">
         <v>76</v>
       </c>
@@ -5581,7 +5645,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="53" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A53" s="20">
         <v>77</v>
       </c>
@@ -5602,7 +5666,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="54" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="54" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A54" s="20">
         <v>78</v>
       </c>
@@ -5623,7 +5687,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="55" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A55" s="20">
         <v>79</v>
       </c>
@@ -5644,7 +5708,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="56" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A56" s="20">
         <v>81</v>
       </c>
@@ -5665,7 +5729,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="57" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A57" s="20">
         <v>83</v>
       </c>
@@ -5686,7 +5750,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="58" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A58" s="20">
         <v>85</v>
       </c>
@@ -5707,7 +5771,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="59" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A59" s="20">
         <v>86</v>
       </c>
@@ -5728,7 +5792,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="60" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A60" s="20">
         <v>87</v>
       </c>
@@ -5749,7 +5813,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="5" customFormat="1" ht="16.5" thickBot="1">
+    <row r="61" spans="1:7" s="5" customFormat="1" ht="18" thickBot="1">
       <c r="A61" s="119">
         <v>88</v>
       </c>
@@ -5770,7 +5834,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="62" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A62" s="19">
         <v>90</v>
       </c>
@@ -5791,7 +5855,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="63" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A63" s="20">
         <v>91</v>
       </c>
@@ -5812,7 +5876,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="64" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A64" s="20">
         <v>92</v>
       </c>
@@ -5833,7 +5897,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="65" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="65" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A65" s="20">
         <v>93</v>
       </c>
@@ -5854,7 +5918,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="66" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="66" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A66" s="20">
         <v>94</v>
       </c>
@@ -5875,7 +5939,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="67" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="67" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A67" s="20">
         <v>95</v>
       </c>
@@ -5896,7 +5960,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="68" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="68" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A68" s="20">
         <v>96</v>
       </c>
@@ -5917,7 +5981,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="69" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="69" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A69" s="20">
         <v>97</v>
       </c>
@@ -5938,7 +6002,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="70" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="70" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A70" s="20">
         <v>100</v>
       </c>
@@ -5959,7 +6023,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="71" spans="1:7" s="5" customFormat="1" ht="16.5" thickBot="1">
+    <row r="71" spans="1:7" s="5" customFormat="1" ht="18" thickBot="1">
       <c r="A71" s="119">
         <v>102</v>
       </c>
@@ -5980,7 +6044,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="72" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="72" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A72" s="19">
         <v>104</v>
       </c>
@@ -6001,7 +6065,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="73" spans="1:7" s="5" customFormat="1" ht="31.5">
+    <row r="73" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A73" s="20">
         <v>107</v>
       </c>
@@ -6022,7 +6086,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="74" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="74" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A74" s="20">
         <v>108</v>
       </c>
@@ -6043,7 +6107,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="75" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="75" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A75" s="20">
         <v>109</v>
       </c>
@@ -6064,7 +6128,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="76" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="76" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A76" s="20">
         <v>110</v>
       </c>
@@ -6085,7 +6149,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="77" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="77" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A77" s="20">
         <v>111</v>
       </c>
@@ -6106,7 +6170,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="78" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="78" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A78" s="20">
         <v>112</v>
       </c>
@@ -6127,7 +6191,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="79" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="79" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A79" s="20">
         <v>113</v>
       </c>
@@ -6148,7 +6212,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="80" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="80" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A80" s="20">
         <v>114</v>
       </c>
@@ -6169,7 +6233,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="81" spans="1:7" s="5" customFormat="1" ht="16.5" thickBot="1">
+    <row r="81" spans="1:7" s="5" customFormat="1" ht="18" thickBot="1">
       <c r="A81" s="119">
         <v>115</v>
       </c>
@@ -6192,7 +6256,7 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G115">
-    <sortCondition sortBy="cellColor" ref="G2:G115" dxfId="3"/>
+    <sortCondition sortBy="cellColor" ref="G2:G115" dxfId="1"/>
   </sortState>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="76" fitToHeight="4" orientation="landscape" r:id="rId1"/>
@@ -6206,24 +6270,24 @@
   </sheetPr>
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+    <sheetView zoomScale="200" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="K88" sqref="K88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="31" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" style="39" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" style="26" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" style="39" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="86.42578125" style="55" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="31"/>
+    <col min="1" max="1" width="5.6640625" style="31" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" style="39" customWidth="1"/>
+    <col min="3" max="3" width="7.5" style="26" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" style="39" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="86.5" style="55" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="131" customFormat="1" ht="16.5" thickBot="1">
+    <row r="1" spans="1:7" s="131" customFormat="1" ht="18" thickBot="1">
       <c r="A1" s="101" t="s">
         <v>0</v>
       </c>
@@ -6246,7 +6310,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75">
+    <row r="2" spans="1:7" ht="17">
       <c r="A2" s="127">
         <v>1</v>
       </c>
@@ -6263,13 +6327,13 @@
         <v>1</v>
       </c>
       <c r="F2" s="70" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G2" s="51" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75">
+    <row r="3" spans="1:7" ht="17">
       <c r="A3" s="128">
         <v>2</v>
       </c>
@@ -6286,13 +6350,13 @@
         <v>2</v>
       </c>
       <c r="F3" s="68" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="G3" s="52" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75">
+    <row r="4" spans="1:7" ht="17">
       <c r="A4" s="128">
         <v>4</v>
       </c>
@@ -6309,13 +6373,13 @@
         <v>4</v>
       </c>
       <c r="F4" s="68" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="G4" s="52" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75">
+    <row r="5" spans="1:7" ht="17">
       <c r="A5" s="128">
         <v>5</v>
       </c>
@@ -6332,13 +6396,13 @@
         <v>5</v>
       </c>
       <c r="F5" s="68" t="s">
-        <v>416</v>
+        <v>443</v>
       </c>
       <c r="G5" s="52" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75">
+    <row r="6" spans="1:7" ht="17">
       <c r="A6" s="128">
         <v>6</v>
       </c>
@@ -6355,13 +6419,13 @@
         <v>6</v>
       </c>
       <c r="F6" s="68" t="s">
-        <v>417</v>
+        <v>444</v>
       </c>
       <c r="G6" s="52" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75">
+    <row r="7" spans="1:7" ht="17">
       <c r="A7" s="128">
         <v>7</v>
       </c>
@@ -6378,13 +6442,13 @@
         <v>7</v>
       </c>
       <c r="F7" s="68" t="s">
-        <v>418</v>
+        <v>445</v>
       </c>
       <c r="G7" s="52" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75">
+    <row r="8" spans="1:7" ht="17">
       <c r="A8" s="128">
         <v>10</v>
       </c>
@@ -6399,13 +6463,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="68" t="s">
-        <v>421</v>
+        <v>447</v>
       </c>
       <c r="G8" s="52" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75">
+    <row r="9" spans="1:7" ht="17">
       <c r="A9" s="128">
         <v>11</v>
       </c>
@@ -6420,13 +6484,13 @@
         <v>11</v>
       </c>
       <c r="F9" s="68" t="s">
-        <v>422</v>
+        <v>448</v>
       </c>
       <c r="G9" s="52" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75">
+    <row r="10" spans="1:7" ht="17">
       <c r="A10" s="128">
         <v>12</v>
       </c>
@@ -6441,13 +6505,13 @@
         <v>12</v>
       </c>
       <c r="F10" s="68" t="s">
-        <v>423</v>
+        <v>449</v>
       </c>
       <c r="G10" s="52" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.5" thickBot="1">
+    <row r="11" spans="1:7" ht="18" thickBot="1">
       <c r="A11" s="129">
         <v>13</v>
       </c>
@@ -6462,13 +6526,13 @@
         <v>13</v>
       </c>
       <c r="F11" s="71" t="s">
-        <v>424</v>
+        <v>450</v>
       </c>
       <c r="G11" s="130" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75">
+    <row r="12" spans="1:7" ht="17">
       <c r="A12" s="127">
         <v>14</v>
       </c>
@@ -6483,13 +6547,13 @@
         <v>1</v>
       </c>
       <c r="F12" s="70" t="s">
-        <v>425</v>
+        <v>451</v>
       </c>
       <c r="G12" s="51" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75">
+    <row r="13" spans="1:7" ht="17">
       <c r="A13" s="128">
         <v>15</v>
       </c>
@@ -6504,13 +6568,13 @@
         <v>2</v>
       </c>
       <c r="F13" s="68" t="s">
-        <v>426</v>
+        <v>452</v>
       </c>
       <c r="G13" s="52" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75">
+    <row r="14" spans="1:7" ht="17">
       <c r="A14" s="128">
         <v>17</v>
       </c>
@@ -6525,13 +6589,13 @@
         <v>4</v>
       </c>
       <c r="F14" s="68" t="s">
-        <v>428</v>
+        <v>454</v>
       </c>
       <c r="G14" s="52" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75">
+    <row r="15" spans="1:7" ht="17">
       <c r="A15" s="128">
         <v>18</v>
       </c>
@@ -6546,13 +6610,13 @@
         <v>5</v>
       </c>
       <c r="F15" s="68" t="s">
-        <v>429</v>
+        <v>455</v>
       </c>
       <c r="G15" s="52" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75">
+    <row r="16" spans="1:7" ht="17">
       <c r="A16" s="128">
         <v>19</v>
       </c>
@@ -6567,13 +6631,13 @@
         <v>6</v>
       </c>
       <c r="F16" s="68" t="s">
-        <v>430</v>
+        <v>456</v>
       </c>
       <c r="G16" s="52" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75">
+    <row r="17" spans="1:7" ht="17">
       <c r="A17" s="128">
         <v>20</v>
       </c>
@@ -6588,13 +6652,13 @@
         <v>7</v>
       </c>
       <c r="F17" s="68" t="s">
-        <v>431</v>
+        <v>457</v>
       </c>
       <c r="G17" s="52" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75">
+    <row r="18" spans="1:7" ht="17">
       <c r="A18" s="128">
         <v>21</v>
       </c>
@@ -6609,13 +6673,13 @@
         <v>8</v>
       </c>
       <c r="F18" s="68" t="s">
-        <v>432</v>
+        <v>458</v>
       </c>
       <c r="G18" s="52" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75">
+    <row r="19" spans="1:7" ht="17">
       <c r="A19" s="128">
         <v>23</v>
       </c>
@@ -6630,13 +6694,13 @@
         <v>10</v>
       </c>
       <c r="F19" s="68" t="s">
-        <v>434</v>
+        <v>459</v>
       </c>
       <c r="G19" s="52" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75">
+    <row r="20" spans="1:7" ht="17">
       <c r="A20" s="128">
         <v>25</v>
       </c>
@@ -6651,13 +6715,13 @@
         <v>12</v>
       </c>
       <c r="F20" s="68" t="s">
-        <v>436</v>
+        <v>461</v>
       </c>
       <c r="G20" s="49" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16.5" thickBot="1">
+    <row r="21" spans="1:7" ht="18" thickBot="1">
       <c r="A21" s="129">
         <v>26</v>
       </c>
@@ -6672,13 +6736,13 @@
         <v>13</v>
       </c>
       <c r="F21" s="134" t="s">
-        <v>437</v>
+        <v>462</v>
       </c>
       <c r="G21" s="53" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75">
+    <row r="22" spans="1:7" ht="17">
       <c r="A22" s="127">
         <v>27</v>
       </c>
@@ -6693,13 +6757,13 @@
         <v>1</v>
       </c>
       <c r="F22" s="70" t="s">
-        <v>438</v>
+        <v>463</v>
       </c>
       <c r="G22" s="51" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75">
+    <row r="23" spans="1:7" ht="17">
       <c r="A23" s="128">
         <v>28</v>
       </c>
@@ -6714,13 +6778,13 @@
         <v>2</v>
       </c>
       <c r="F23" s="68" t="s">
-        <v>439</v>
+        <v>464</v>
       </c>
       <c r="G23" s="99" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75">
+    <row r="24" spans="1:7" ht="17">
       <c r="A24" s="128">
         <v>30</v>
       </c>
@@ -6735,13 +6799,13 @@
         <v>4</v>
       </c>
       <c r="F24" s="68" t="s">
-        <v>441</v>
+        <v>466</v>
       </c>
       <c r="G24" s="52" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75">
+    <row r="25" spans="1:7" ht="17">
       <c r="A25" s="128">
         <v>31</v>
       </c>
@@ -6756,13 +6820,13 @@
         <v>5</v>
       </c>
       <c r="F25" s="68" t="s">
-        <v>442</v>
+        <v>467</v>
       </c>
       <c r="G25" s="52" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="31.5">
+    <row r="26" spans="1:7" ht="17">
       <c r="A26" s="128">
         <v>32</v>
       </c>
@@ -6777,13 +6841,13 @@
         <v>6</v>
       </c>
       <c r="F26" s="68" t="s">
-        <v>443</v>
+        <v>468</v>
       </c>
       <c r="G26" s="52" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75">
+    <row r="27" spans="1:7" ht="17">
       <c r="A27" s="128">
         <v>33</v>
       </c>
@@ -6798,13 +6862,13 @@
         <v>7</v>
       </c>
       <c r="F27" s="68" t="s">
-        <v>444</v>
+        <v>469</v>
       </c>
       <c r="G27" s="111" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75">
+    <row r="28" spans="1:7" ht="17">
       <c r="A28" s="128">
         <v>34</v>
       </c>
@@ -6819,13 +6883,13 @@
         <v>8</v>
       </c>
       <c r="F28" s="68" t="s">
-        <v>445</v>
+        <v>470</v>
       </c>
       <c r="G28" s="52" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75">
+    <row r="29" spans="1:7" ht="17">
       <c r="A29" s="128">
         <v>35</v>
       </c>
@@ -6840,13 +6904,13 @@
         <v>9</v>
       </c>
       <c r="F29" s="68" t="s">
-        <v>446</v>
+        <v>471</v>
       </c>
       <c r="G29" s="52" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.75">
+    <row r="30" spans="1:7" ht="17">
       <c r="A30" s="128">
         <v>37</v>
       </c>
@@ -6861,13 +6925,13 @@
         <v>11</v>
       </c>
       <c r="F30" s="68" t="s">
-        <v>448</v>
+        <v>473</v>
       </c>
       <c r="G30" s="52" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="16.5" thickBot="1">
+    <row r="31" spans="1:7" ht="18" thickBot="1">
       <c r="A31" s="129">
         <v>39</v>
       </c>
@@ -6882,13 +6946,13 @@
         <v>13</v>
       </c>
       <c r="F31" s="117" t="s">
-        <v>450</v>
+        <v>475</v>
       </c>
       <c r="G31" s="53" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.75">
+    <row r="32" spans="1:7" ht="17">
       <c r="A32" s="127">
         <v>41</v>
       </c>
@@ -6903,13 +6967,13 @@
         <v>2</v>
       </c>
       <c r="F32" s="70" t="s">
-        <v>452</v>
+        <v>477</v>
       </c>
       <c r="G32" s="51" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.75">
+    <row r="33" spans="1:7" ht="17">
       <c r="A33" s="128">
         <v>43</v>
       </c>
@@ -6924,13 +6988,13 @@
         <v>4</v>
       </c>
       <c r="F33" s="68" t="s">
-        <v>454</v>
+        <v>478</v>
       </c>
       <c r="G33" s="52" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15.75">
+    <row r="34" spans="1:7" ht="17">
       <c r="A34" s="128">
         <v>45</v>
       </c>
@@ -6945,13 +7009,13 @@
         <v>6</v>
       </c>
       <c r="F34" s="68" t="s">
-        <v>456</v>
+        <v>479</v>
       </c>
       <c r="G34" s="49" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="31.5">
+    <row r="35" spans="1:7" ht="17">
       <c r="A35" s="128">
         <v>46</v>
       </c>
@@ -6966,13 +7030,13 @@
         <v>7</v>
       </c>
       <c r="F35" s="68" t="s">
-        <v>457</v>
+        <v>480</v>
       </c>
       <c r="G35" s="52" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15.75">
+    <row r="36" spans="1:7" ht="17">
       <c r="A36" s="128">
         <v>47</v>
       </c>
@@ -6987,13 +7051,13 @@
         <v>8</v>
       </c>
       <c r="F36" s="68" t="s">
-        <v>458</v>
+        <v>481</v>
       </c>
       <c r="G36" s="52" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="31.5">
+    <row r="37" spans="1:7" ht="34">
       <c r="A37" s="128">
         <v>48</v>
       </c>
@@ -7008,13 +7072,13 @@
         <v>9</v>
       </c>
       <c r="F37" s="68" t="s">
-        <v>459</v>
+        <v>482</v>
       </c>
       <c r="G37" s="52" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15.75">
+    <row r="38" spans="1:7" ht="17">
       <c r="A38" s="128">
         <v>49</v>
       </c>
@@ -7029,13 +7093,13 @@
         <v>10</v>
       </c>
       <c r="F38" s="68" t="s">
-        <v>460</v>
+        <v>483</v>
       </c>
       <c r="G38" s="52" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15.75">
+    <row r="39" spans="1:7" ht="17">
       <c r="A39" s="128">
         <v>50</v>
       </c>
@@ -7050,13 +7114,13 @@
         <v>11</v>
       </c>
       <c r="F39" s="68" t="s">
-        <v>461</v>
+        <v>484</v>
       </c>
       <c r="G39" s="52" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="31.5">
+    <row r="40" spans="1:7" ht="17">
       <c r="A40" s="128">
         <v>51</v>
       </c>
@@ -7071,13 +7135,13 @@
         <v>12</v>
       </c>
       <c r="F40" s="68" t="s">
-        <v>462</v>
+        <v>485</v>
       </c>
       <c r="G40" s="49" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="16.5" thickBot="1">
+    <row r="41" spans="1:7" ht="18" thickBot="1">
       <c r="A41" s="129">
         <v>54</v>
       </c>
@@ -7092,13 +7156,13 @@
         <v>15</v>
       </c>
       <c r="F41" s="71" t="s">
-        <v>465</v>
+        <v>488</v>
       </c>
       <c r="G41" s="130" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15.75">
+    <row r="42" spans="1:7" ht="17">
       <c r="A42" s="127">
         <v>55</v>
       </c>
@@ -7115,13 +7179,13 @@
         <v>1</v>
       </c>
       <c r="F42" s="70" t="s">
-        <v>466</v>
+        <v>489</v>
       </c>
       <c r="G42" s="51" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15.75">
+    <row r="43" spans="1:7" ht="17">
       <c r="A43" s="128">
         <v>56</v>
       </c>
@@ -7138,13 +7202,13 @@
         <v>2</v>
       </c>
       <c r="F43" s="68" t="s">
-        <v>467</v>
+        <v>490</v>
       </c>
       <c r="G43" s="52" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15.75">
+    <row r="44" spans="1:7" ht="17">
       <c r="A44" s="128">
         <v>57</v>
       </c>
@@ -7161,13 +7225,13 @@
         <v>3</v>
       </c>
       <c r="F44" s="68" t="s">
-        <v>468</v>
+        <v>491</v>
       </c>
       <c r="G44" s="52" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15.75">
+    <row r="45" spans="1:7" ht="17">
       <c r="A45" s="128">
         <v>60</v>
       </c>
@@ -7184,13 +7248,13 @@
         <v>6</v>
       </c>
       <c r="F45" s="68" t="s">
-        <v>471</v>
+        <v>492</v>
       </c>
       <c r="G45" s="52" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15.75">
+    <row r="46" spans="1:7" ht="17">
       <c r="A46" s="128">
         <v>62</v>
       </c>
@@ -7207,13 +7271,13 @@
         <v>8</v>
       </c>
       <c r="F46" s="68" t="s">
-        <v>473</v>
+        <v>494</v>
       </c>
       <c r="G46" s="52" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="15.75">
+    <row r="47" spans="1:7" ht="17">
       <c r="A47" s="128">
         <v>65</v>
       </c>
@@ -7230,13 +7294,13 @@
         <v>11</v>
       </c>
       <c r="F47" s="68" t="s">
-        <v>476</v>
+        <v>496</v>
       </c>
       <c r="G47" s="52" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15.75">
+    <row r="48" spans="1:7" ht="17">
       <c r="A48" s="128">
         <v>66</v>
       </c>
@@ -7253,13 +7317,13 @@
         <v>12</v>
       </c>
       <c r="F48" s="68" t="s">
-        <v>477</v>
+        <v>497</v>
       </c>
       <c r="G48" s="52" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15.75">
+    <row r="49" spans="1:7" ht="17">
       <c r="A49" s="128">
         <v>67</v>
       </c>
@@ -7276,13 +7340,13 @@
         <v>13</v>
       </c>
       <c r="F49" s="68" t="s">
-        <v>478</v>
+        <v>498</v>
       </c>
       <c r="G49" s="52" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15.75">
+    <row r="50" spans="1:7" ht="17">
       <c r="A50" s="128">
         <v>68</v>
       </c>
@@ -7299,13 +7363,13 @@
         <v>14</v>
       </c>
       <c r="F50" s="68" t="s">
-        <v>479</v>
+        <v>499</v>
       </c>
       <c r="G50" s="52" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="16.5" thickBot="1">
+    <row r="51" spans="1:7" ht="18" thickBot="1">
       <c r="A51" s="129">
         <v>69</v>
       </c>
@@ -7322,13 +7386,13 @@
         <v>15</v>
       </c>
       <c r="F51" s="71" t="s">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="G51" s="130" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15.75">
+    <row r="52" spans="1:7" ht="17">
       <c r="A52" s="127">
         <v>71</v>
       </c>
@@ -7343,13 +7407,13 @@
         <v>2</v>
       </c>
       <c r="F52" s="70" t="s">
-        <v>482</v>
+        <v>501</v>
       </c>
       <c r="G52" s="51" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="15.75">
+    <row r="53" spans="1:7" ht="17">
       <c r="A53" s="128">
         <v>72</v>
       </c>
@@ -7364,13 +7428,13 @@
         <v>3</v>
       </c>
       <c r="F53" s="68" t="s">
-        <v>483</v>
+        <v>502</v>
       </c>
       <c r="G53" s="52" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="54" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="54" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A54" s="128">
         <v>73</v>
       </c>
@@ -7385,13 +7449,13 @@
         <v>4</v>
       </c>
       <c r="F54" s="68" t="s">
-        <v>484</v>
+        <v>503</v>
       </c>
       <c r="G54" s="52" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="15.75">
+    <row r="55" spans="1:7" ht="17">
       <c r="A55" s="128">
         <v>74</v>
       </c>
@@ -7406,13 +7470,13 @@
         <v>5</v>
       </c>
       <c r="F55" s="68" t="s">
-        <v>485</v>
+        <v>504</v>
       </c>
       <c r="G55" s="52" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15.75">
+    <row r="56" spans="1:7" ht="17">
       <c r="A56" s="128">
         <v>75</v>
       </c>
@@ -7427,13 +7491,13 @@
         <v>6</v>
       </c>
       <c r="F56" s="68" t="s">
-        <v>486</v>
+        <v>505</v>
       </c>
       <c r="G56" s="52" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="31.5">
+    <row r="57" spans="1:7" ht="17">
       <c r="A57" s="128">
         <v>76</v>
       </c>
@@ -7448,13 +7512,13 @@
         <v>7</v>
       </c>
       <c r="F57" s="68" t="s">
-        <v>487</v>
+        <v>506</v>
       </c>
       <c r="G57" s="52" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="15.75">
+    <row r="58" spans="1:7" ht="17">
       <c r="A58" s="128">
         <v>77</v>
       </c>
@@ -7469,13 +7533,13 @@
         <v>8</v>
       </c>
       <c r="F58" s="68" t="s">
-        <v>488</v>
+        <v>507</v>
       </c>
       <c r="G58" s="52" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="15.75">
+    <row r="59" spans="1:7" ht="17">
       <c r="A59" s="128">
         <v>78</v>
       </c>
@@ -7490,13 +7554,13 @@
         <v>9</v>
       </c>
       <c r="F59" s="68" t="s">
-        <v>489</v>
+        <v>508</v>
       </c>
       <c r="G59" s="52" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15.75">
+    <row r="60" spans="1:7" ht="17">
       <c r="A60" s="128">
         <v>79</v>
       </c>
@@ -7511,13 +7575,13 @@
         <v>10</v>
       </c>
       <c r="F60" s="68" t="s">
-        <v>490</v>
+        <v>509</v>
       </c>
       <c r="G60" s="52" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="16.5" thickBot="1">
+    <row r="61" spans="1:7" ht="18" thickBot="1">
       <c r="A61" s="129">
         <v>81</v>
       </c>
@@ -7532,13 +7596,13 @@
         <v>12</v>
       </c>
       <c r="F61" s="71" t="s">
-        <v>492</v>
+        <v>511</v>
       </c>
       <c r="G61" s="130" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="15.75">
+    <row r="62" spans="1:7" ht="17">
       <c r="A62" s="127">
         <v>83</v>
       </c>
@@ -7553,13 +7617,13 @@
         <v>1</v>
       </c>
       <c r="F62" s="70" t="s">
-        <v>494</v>
+        <v>513</v>
       </c>
       <c r="G62" s="51" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="31.5">
+    <row r="63" spans="1:7" ht="34">
       <c r="A63" s="128">
         <v>85</v>
       </c>
@@ -7574,13 +7638,13 @@
         <v>3</v>
       </c>
       <c r="F63" s="68" t="s">
-        <v>496</v>
+        <v>515</v>
       </c>
       <c r="G63" s="49" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="31.5">
+    <row r="64" spans="1:7" ht="17">
       <c r="A64" s="128">
         <v>86</v>
       </c>
@@ -7595,13 +7659,13 @@
         <v>4</v>
       </c>
       <c r="F64" s="68" t="s">
-        <v>497</v>
+        <v>516</v>
       </c>
       <c r="G64" s="52" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="15.75">
+    <row r="65" spans="1:7" ht="17">
       <c r="A65" s="128">
         <v>87</v>
       </c>
@@ -7616,13 +7680,13 @@
         <v>5</v>
       </c>
       <c r="F65" s="68" t="s">
-        <v>498</v>
+        <v>517</v>
       </c>
       <c r="G65" s="49" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="15.75">
+    <row r="66" spans="1:7" ht="17">
       <c r="A66" s="128">
         <v>89</v>
       </c>
@@ -7637,13 +7701,13 @@
         <v>7</v>
       </c>
       <c r="F66" s="68" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="G66" s="52" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="15.75">
+    <row r="67" spans="1:7" ht="17">
       <c r="A67" s="128">
         <v>91</v>
       </c>
@@ -7658,13 +7722,13 @@
         <v>9</v>
       </c>
       <c r="F67" s="68" t="s">
-        <v>502</v>
+        <v>519</v>
       </c>
       <c r="G67" s="52" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="15.75">
+    <row r="68" spans="1:7" ht="17">
       <c r="A68" s="128">
         <v>92</v>
       </c>
@@ -7679,13 +7743,13 @@
         <v>10</v>
       </c>
       <c r="F68" s="68" t="s">
-        <v>503</v>
+        <v>520</v>
       </c>
       <c r="G68" s="52" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="31.5">
+    <row r="69" spans="1:7" ht="17">
       <c r="A69" s="128">
         <v>93</v>
       </c>
@@ -7700,13 +7764,13 @@
         <v>11</v>
       </c>
       <c r="F69" s="68" t="s">
-        <v>504</v>
+        <v>521</v>
       </c>
       <c r="G69" s="52" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="15.75">
+    <row r="70" spans="1:7" ht="17">
       <c r="A70" s="128">
         <v>94</v>
       </c>
@@ -7721,13 +7785,13 @@
         <v>12</v>
       </c>
       <c r="F70" s="68" t="s">
-        <v>505</v>
+        <v>522</v>
       </c>
       <c r="G70" s="52" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="16.5" thickBot="1">
+    <row r="71" spans="1:7" ht="18" thickBot="1">
       <c r="A71" s="129">
         <v>95</v>
       </c>
@@ -7742,13 +7806,13 @@
         <v>13</v>
       </c>
       <c r="F71" s="117" t="s">
-        <v>506</v>
+        <v>523</v>
       </c>
       <c r="G71" s="53" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="31.5">
+    <row r="72" spans="1:7" ht="17">
       <c r="A72" s="127">
         <v>96</v>
       </c>
@@ -7763,13 +7827,13 @@
         <v>1</v>
       </c>
       <c r="F72" s="70" t="s">
-        <v>507</v>
+        <v>524</v>
       </c>
       <c r="G72" s="51" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="31.5">
+    <row r="73" spans="1:7" ht="17">
       <c r="A73" s="128">
         <v>97</v>
       </c>
@@ -7784,13 +7848,13 @@
         <v>2</v>
       </c>
       <c r="F73" s="68" t="s">
-        <v>508</v>
+        <v>525</v>
       </c>
       <c r="G73" s="52" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="15.75">
+    <row r="74" spans="1:7" ht="17">
       <c r="A74" s="128">
         <v>98</v>
       </c>
@@ -7805,13 +7869,13 @@
         <v>3</v>
       </c>
       <c r="F74" s="68" t="s">
-        <v>509</v>
+        <v>526</v>
       </c>
       <c r="G74" s="52" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="15.75">
+    <row r="75" spans="1:7" ht="17">
       <c r="A75" s="128">
         <v>100</v>
       </c>
@@ -7826,13 +7890,13 @@
         <v>5</v>
       </c>
       <c r="F75" s="68" t="s">
-        <v>511</v>
+        <v>528</v>
       </c>
       <c r="G75" s="52" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="15.75">
+    <row r="76" spans="1:7" ht="17">
       <c r="A76" s="128">
         <v>101</v>
       </c>
@@ -7847,13 +7911,13 @@
         <v>6</v>
       </c>
       <c r="F76" s="68" t="s">
-        <v>512</v>
+        <v>529</v>
       </c>
       <c r="G76" s="52" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="15.75">
+    <row r="77" spans="1:7" ht="17">
       <c r="A77" s="128">
         <v>103</v>
       </c>
@@ -7868,13 +7932,13 @@
         <v>8</v>
       </c>
       <c r="F77" s="68" t="s">
-        <v>514</v>
+        <v>531</v>
       </c>
       <c r="G77" s="49" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="15.75">
+    <row r="78" spans="1:7" ht="17">
       <c r="A78" s="128">
         <v>105</v>
       </c>
@@ -7889,13 +7953,13 @@
         <v>10</v>
       </c>
       <c r="F78" s="68" t="s">
-        <v>516</v>
+        <v>533</v>
       </c>
       <c r="G78" s="52" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="15.75">
+    <row r="79" spans="1:7" ht="17">
       <c r="A79" s="128">
         <v>106</v>
       </c>
@@ -7910,13 +7974,13 @@
         <v>11</v>
       </c>
       <c r="F79" s="68" t="s">
-        <v>517</v>
+        <v>534</v>
       </c>
       <c r="G79" s="52" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="31.5">
+    <row r="80" spans="1:7" ht="17">
       <c r="A80" s="128">
         <v>107</v>
       </c>
@@ -7931,13 +7995,13 @@
         <v>12</v>
       </c>
       <c r="F80" s="68" t="s">
-        <v>518</v>
+        <v>535</v>
       </c>
       <c r="G80" s="52" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="16.5" thickBot="1">
+    <row r="81" spans="1:7" ht="18" thickBot="1">
       <c r="A81" s="129">
         <v>108</v>
       </c>
@@ -7952,7 +8016,7 @@
         <v>13</v>
       </c>
       <c r="F81" s="117" t="s">
-        <v>519</v>
+        <v>536</v>
       </c>
       <c r="G81" s="53" t="s">
         <v>293</v>
@@ -7960,12 +8024,12 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G109">
-    <sortCondition sortBy="cellColor" ref="G2:G109" dxfId="2"/>
+    <sortCondition sortBy="cellColor" ref="G2:G109" dxfId="0"/>
   </sortState>
   <customSheetViews>
-    <customSheetView guid="{E395C88E-3BA8-B344-A1BC-A46BF8755BD3}" fitToPage="1" hiddenColumns="1">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="H109" sqref="H109"/>
+    <customSheetView guid="{3D544592-D893-4912-8A4C-A9212B9C1328}" fitToPage="1">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="L1" sqref="G1:L1048576"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup scale="68" fitToHeight="4" orientation="landscape" r:id="rId1"/>
     </customSheetView>
@@ -7980,38 +8044,1803 @@
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{3D544592-D893-4912-8A4C-A9212B9C1328}" fitToPage="1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="L1" sqref="G1:L1048576"/>
+    <customSheetView guid="{E395C88E-3BA8-B344-A1BC-A46BF8755BD3}" fitToPage="1" hiddenColumns="1">
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="H109" sqref="H109"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup scale="68" fitToHeight="4" orientation="landscape" r:id="rId3"/>
     </customSheetView>
   </customSheetViews>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="68" fitToHeight="4" orientation="landscape" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F981DB43-5CB2-2645-B4A1-50D990218B29}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2:F81"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5.6640625" style="31" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" style="39" customWidth="1"/>
+    <col min="3" max="3" width="7.5" style="26" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" style="39" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="86.5" style="55" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="31"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="131" customFormat="1" ht="18" thickBot="1">
+      <c r="A1" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="102" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="103" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="104" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="105" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="106" t="s">
+        <v>294</v>
+      </c>
+      <c r="G1" s="107" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="17">
+      <c r="A2" s="127">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="109" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="24">
+        <v>1</v>
+      </c>
+      <c r="F2" s="70" t="s">
+        <v>445</v>
+      </c>
+      <c r="G2" s="51" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="17">
+      <c r="A3" s="128">
+        <v>2</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="21">
+        <v>2</v>
+      </c>
+      <c r="F3" s="68" t="s">
+        <v>446</v>
+      </c>
+      <c r="G3" s="52" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17">
+      <c r="A4" s="128">
+        <v>4</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="21">
+        <v>4</v>
+      </c>
+      <c r="F4" s="68" t="s">
+        <v>447</v>
+      </c>
+      <c r="G4" s="52" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17">
+      <c r="A5" s="128">
+        <v>5</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="21">
+        <v>5</v>
+      </c>
+      <c r="F5" s="68" t="s">
+        <v>448</v>
+      </c>
+      <c r="G5" s="52" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17">
+      <c r="A6" s="128">
+        <v>6</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="21">
+        <v>6</v>
+      </c>
+      <c r="F6" s="68" t="s">
+        <v>449</v>
+      </c>
+      <c r="G6" s="52" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="17">
+      <c r="A7" s="128">
+        <v>7</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="21">
+        <v>7</v>
+      </c>
+      <c r="F7" s="68" t="s">
+        <v>450</v>
+      </c>
+      <c r="G7" s="52" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="17">
+      <c r="A8" s="128">
+        <v>10</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="97" t="s">
+        <v>192</v>
+      </c>
+      <c r="D8" s="29"/>
+      <c r="E8" s="21">
+        <v>10</v>
+      </c>
+      <c r="F8" s="68" t="s">
+        <v>453</v>
+      </c>
+      <c r="G8" s="52" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="17">
+      <c r="A9" s="128">
+        <v>11</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="97" t="s">
+        <v>192</v>
+      </c>
+      <c r="D9" s="29"/>
+      <c r="E9" s="21">
+        <v>11</v>
+      </c>
+      <c r="F9" s="68" t="s">
+        <v>454</v>
+      </c>
+      <c r="G9" s="52" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="17">
+      <c r="A10" s="128">
+        <v>12</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="97" t="s">
+        <v>192</v>
+      </c>
+      <c r="D10" s="29"/>
+      <c r="E10" s="21">
+        <v>12</v>
+      </c>
+      <c r="F10" s="68" t="s">
+        <v>455</v>
+      </c>
+      <c r="G10" s="52" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18" thickBot="1">
+      <c r="A11" s="129">
+        <v>13</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="135" t="s">
+        <v>192</v>
+      </c>
+      <c r="D11" s="46"/>
+      <c r="E11" s="25">
+        <v>13</v>
+      </c>
+      <c r="F11" s="71" t="s">
+        <v>456</v>
+      </c>
+      <c r="G11" s="130" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="17">
+      <c r="A12" s="127">
+        <v>14</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="132" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="33"/>
+      <c r="E12" s="24">
+        <v>1</v>
+      </c>
+      <c r="F12" s="70" t="s">
+        <v>457</v>
+      </c>
+      <c r="G12" s="51" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="17">
+      <c r="A13" s="128">
+        <v>15</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="29"/>
+      <c r="E13" s="21">
+        <v>2</v>
+      </c>
+      <c r="F13" s="68" t="s">
+        <v>458</v>
+      </c>
+      <c r="G13" s="52" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="17">
+      <c r="A14" s="128">
+        <v>17</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="29"/>
+      <c r="E14" s="21">
+        <v>4</v>
+      </c>
+      <c r="F14" s="68" t="s">
+        <v>459</v>
+      </c>
+      <c r="G14" s="52" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="17">
+      <c r="A15" s="128">
+        <v>18</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="29"/>
+      <c r="E15" s="21">
+        <v>5</v>
+      </c>
+      <c r="F15" s="68" t="s">
+        <v>460</v>
+      </c>
+      <c r="G15" s="52" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="17">
+      <c r="A16" s="128">
+        <v>19</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="29"/>
+      <c r="E16" s="21">
+        <v>6</v>
+      </c>
+      <c r="F16" s="68" t="s">
+        <v>461</v>
+      </c>
+      <c r="G16" s="52" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="17">
+      <c r="A17" s="128">
+        <v>20</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="29"/>
+      <c r="E17" s="21">
+        <v>7</v>
+      </c>
+      <c r="F17" s="68" t="s">
+        <v>462</v>
+      </c>
+      <c r="G17" s="52" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="17">
+      <c r="A18" s="128">
+        <v>21</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="29"/>
+      <c r="E18" s="21">
+        <v>8</v>
+      </c>
+      <c r="F18" s="68" t="s">
+        <v>463</v>
+      </c>
+      <c r="G18" s="52" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="17">
+      <c r="A19" s="128">
+        <v>23</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="29"/>
+      <c r="E19" s="21">
+        <v>10</v>
+      </c>
+      <c r="F19" s="68" t="s">
+        <v>465</v>
+      </c>
+      <c r="G19" s="52" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="17">
+      <c r="A20" s="128">
+        <v>25</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="29"/>
+      <c r="E20" s="21">
+        <v>12</v>
+      </c>
+      <c r="F20" s="68" t="s">
+        <v>467</v>
+      </c>
+      <c r="G20" s="49" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="18" thickBot="1">
+      <c r="A21" s="129">
+        <v>26</v>
+      </c>
+      <c r="B21" s="113" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="114" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="115"/>
+      <c r="E21" s="133">
+        <v>13</v>
+      </c>
+      <c r="F21" s="134" t="s">
+        <v>468</v>
+      </c>
+      <c r="G21" s="53" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="17">
+      <c r="A22" s="127">
+        <v>27</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="132" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="33"/>
+      <c r="E22" s="24">
+        <v>1</v>
+      </c>
+      <c r="F22" s="70" t="s">
+        <v>469</v>
+      </c>
+      <c r="G22" s="51" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="17">
+      <c r="A23" s="128">
+        <v>28</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="29"/>
+      <c r="E23" s="21">
+        <v>2</v>
+      </c>
+      <c r="F23" s="68" t="s">
+        <v>470</v>
+      </c>
+      <c r="G23" s="99" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="17">
+      <c r="A24" s="128">
+        <v>30</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="29"/>
+      <c r="E24" s="21">
+        <v>4</v>
+      </c>
+      <c r="F24" s="68" t="s">
+        <v>472</v>
+      </c>
+      <c r="G24" s="52" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="17">
+      <c r="A25" s="128">
+        <v>31</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="29"/>
+      <c r="E25" s="21">
+        <v>5</v>
+      </c>
+      <c r="F25" s="68" t="s">
+        <v>473</v>
+      </c>
+      <c r="G25" s="52" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="17">
+      <c r="A26" s="128">
+        <v>32</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="29"/>
+      <c r="E26" s="21">
+        <v>6</v>
+      </c>
+      <c r="F26" s="68" t="s">
+        <v>474</v>
+      </c>
+      <c r="G26" s="52" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="17">
+      <c r="A27" s="128">
+        <v>33</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="29"/>
+      <c r="E27" s="21">
+        <v>7</v>
+      </c>
+      <c r="F27" s="68" t="s">
+        <v>475</v>
+      </c>
+      <c r="G27" s="111" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="17">
+      <c r="A28" s="128">
+        <v>34</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="29"/>
+      <c r="E28" s="21">
+        <v>8</v>
+      </c>
+      <c r="F28" s="68" t="s">
+        <v>476</v>
+      </c>
+      <c r="G28" s="52" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="17">
+      <c r="A29" s="128">
+        <v>35</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="29"/>
+      <c r="E29" s="21">
+        <v>9</v>
+      </c>
+      <c r="F29" s="68" t="s">
+        <v>477</v>
+      </c>
+      <c r="G29" s="52" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="17">
+      <c r="A30" s="128">
+        <v>37</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="29"/>
+      <c r="E30" s="21">
+        <v>11</v>
+      </c>
+      <c r="F30" s="68" t="s">
+        <v>478</v>
+      </c>
+      <c r="G30" s="52" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="18" thickBot="1">
+      <c r="A31" s="129">
+        <v>39</v>
+      </c>
+      <c r="B31" s="113" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="114" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="115"/>
+      <c r="E31" s="116">
+        <v>13</v>
+      </c>
+      <c r="F31" s="117" t="s">
+        <v>479</v>
+      </c>
+      <c r="G31" s="53" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="17">
+      <c r="A32" s="127">
+        <v>41</v>
+      </c>
+      <c r="B32" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="132" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="33"/>
+      <c r="E32" s="24">
+        <v>2</v>
+      </c>
+      <c r="F32" s="70" t="s">
+        <v>481</v>
+      </c>
+      <c r="G32" s="51" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="17">
+      <c r="A33" s="128">
+        <v>43</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="29"/>
+      <c r="E33" s="21">
+        <v>4</v>
+      </c>
+      <c r="F33" s="68" t="s">
+        <v>483</v>
+      </c>
+      <c r="G33" s="52" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="17">
+      <c r="A34" s="128">
+        <v>45</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="29"/>
+      <c r="E34" s="21">
+        <v>6</v>
+      </c>
+      <c r="F34" s="68" t="s">
+        <v>485</v>
+      </c>
+      <c r="G34" s="49" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="17">
+      <c r="A35" s="128">
+        <v>46</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="29"/>
+      <c r="E35" s="21">
+        <v>7</v>
+      </c>
+      <c r="F35" s="68" t="s">
+        <v>486</v>
+      </c>
+      <c r="G35" s="52" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="17">
+      <c r="A36" s="128">
+        <v>47</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="29"/>
+      <c r="E36" s="21">
+        <v>8</v>
+      </c>
+      <c r="F36" s="68" t="s">
+        <v>487</v>
+      </c>
+      <c r="G36" s="52" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="34">
+      <c r="A37" s="128">
+        <v>48</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="29"/>
+      <c r="E37" s="21">
+        <v>9</v>
+      </c>
+      <c r="F37" s="68" t="s">
+        <v>488</v>
+      </c>
+      <c r="G37" s="52" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="17">
+      <c r="A38" s="128">
+        <v>49</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" s="29"/>
+      <c r="E38" s="21">
+        <v>10</v>
+      </c>
+      <c r="F38" s="68" t="s">
+        <v>489</v>
+      </c>
+      <c r="G38" s="52" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="17">
+      <c r="A39" s="128">
+        <v>50</v>
+      </c>
+      <c r="B39" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" s="29"/>
+      <c r="E39" s="21">
+        <v>11</v>
+      </c>
+      <c r="F39" s="68" t="s">
+        <v>490</v>
+      </c>
+      <c r="G39" s="52" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="17">
+      <c r="A40" s="128">
+        <v>51</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="29"/>
+      <c r="E40" s="21">
+        <v>12</v>
+      </c>
+      <c r="F40" s="68" t="s">
+        <v>491</v>
+      </c>
+      <c r="G40" s="49" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="18" thickBot="1">
+      <c r="A41" s="129">
+        <v>54</v>
+      </c>
+      <c r="B41" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" s="46"/>
+      <c r="E41" s="25">
+        <v>15</v>
+      </c>
+      <c r="F41" s="71" t="s">
+        <v>492</v>
+      </c>
+      <c r="G41" s="130" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="17">
+      <c r="A42" s="127">
+        <v>55</v>
+      </c>
+      <c r="B42" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" s="132" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="78" t="s">
+        <v>75</v>
+      </c>
+      <c r="E42" s="24">
+        <v>1</v>
+      </c>
+      <c r="F42" s="70" t="s">
+        <v>493</v>
+      </c>
+      <c r="G42" s="51" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="17">
+      <c r="A43" s="128">
+        <v>56</v>
+      </c>
+      <c r="B43" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" s="77" t="s">
+        <v>75</v>
+      </c>
+      <c r="E43" s="21">
+        <v>2</v>
+      </c>
+      <c r="F43" s="68" t="s">
+        <v>494</v>
+      </c>
+      <c r="G43" s="52" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="17">
+      <c r="A44" s="128">
+        <v>57</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" s="77" t="s">
+        <v>75</v>
+      </c>
+      <c r="E44" s="21">
+        <v>3</v>
+      </c>
+      <c r="F44" s="68" t="s">
+        <v>495</v>
+      </c>
+      <c r="G44" s="52" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="17">
+      <c r="A45" s="128">
+        <v>60</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C45" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" s="77" t="s">
+        <v>75</v>
+      </c>
+      <c r="E45" s="21">
+        <v>6</v>
+      </c>
+      <c r="F45" s="68" t="s">
+        <v>497</v>
+      </c>
+      <c r="G45" s="52" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="17">
+      <c r="A46" s="128">
+        <v>62</v>
+      </c>
+      <c r="B46" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46" s="77" t="s">
+        <v>75</v>
+      </c>
+      <c r="E46" s="21">
+        <v>8</v>
+      </c>
+      <c r="F46" s="68" t="s">
+        <v>499</v>
+      </c>
+      <c r="G46" s="52" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="17">
+      <c r="A47" s="128">
+        <v>65</v>
+      </c>
+      <c r="B47" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C47" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" s="77" t="s">
+        <v>75</v>
+      </c>
+      <c r="E47" s="21">
+        <v>11</v>
+      </c>
+      <c r="F47" s="68" t="s">
+        <v>501</v>
+      </c>
+      <c r="G47" s="52" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="17">
+      <c r="A48" s="128">
+        <v>66</v>
+      </c>
+      <c r="B48" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C48" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D48" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="E48" s="21">
+        <v>12</v>
+      </c>
+      <c r="F48" s="68" t="s">
+        <v>502</v>
+      </c>
+      <c r="G48" s="52" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="17">
+      <c r="A49" s="128">
+        <v>67</v>
+      </c>
+      <c r="B49" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="E49" s="21">
+        <v>13</v>
+      </c>
+      <c r="F49" s="68" t="s">
+        <v>503</v>
+      </c>
+      <c r="G49" s="52" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="17">
+      <c r="A50" s="128">
+        <v>68</v>
+      </c>
+      <c r="B50" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="D50" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="E50" s="21">
+        <v>14</v>
+      </c>
+      <c r="F50" s="68" t="s">
+        <v>504</v>
+      </c>
+      <c r="G50" s="52" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="18" thickBot="1">
+      <c r="A51" s="129">
+        <v>69</v>
+      </c>
+      <c r="B51" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="D51" s="126" t="s">
+        <v>83</v>
+      </c>
+      <c r="E51" s="25">
+        <v>15</v>
+      </c>
+      <c r="F51" s="71" t="s">
+        <v>505</v>
+      </c>
+      <c r="G51" s="130" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="17">
+      <c r="A52" s="127">
+        <v>71</v>
+      </c>
+      <c r="B52" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="C52" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="D52" s="33"/>
+      <c r="E52" s="24">
+        <v>2</v>
+      </c>
+      <c r="F52" s="70" t="s">
+        <v>507</v>
+      </c>
+      <c r="G52" s="51" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="17">
+      <c r="A53" s="128">
+        <v>72</v>
+      </c>
+      <c r="B53" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C53" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D53" s="29"/>
+      <c r="E53" s="21">
+        <v>3</v>
+      </c>
+      <c r="F53" s="68" t="s">
+        <v>508</v>
+      </c>
+      <c r="G53" s="52" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" s="5" customFormat="1" ht="17">
+      <c r="A54" s="128">
+        <v>73</v>
+      </c>
+      <c r="B54" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C54" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D54" s="29"/>
+      <c r="E54" s="21">
+        <v>4</v>
+      </c>
+      <c r="F54" s="68" t="s">
+        <v>509</v>
+      </c>
+      <c r="G54" s="52" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="17">
+      <c r="A55" s="128">
+        <v>74</v>
+      </c>
+      <c r="B55" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C55" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D55" s="29"/>
+      <c r="E55" s="21">
+        <v>5</v>
+      </c>
+      <c r="F55" s="68" t="s">
+        <v>510</v>
+      </c>
+      <c r="G55" s="52" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="17">
+      <c r="A56" s="128">
+        <v>75</v>
+      </c>
+      <c r="B56" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C56" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D56" s="29"/>
+      <c r="E56" s="21">
+        <v>6</v>
+      </c>
+      <c r="F56" s="68" t="s">
+        <v>511</v>
+      </c>
+      <c r="G56" s="52" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="17">
+      <c r="A57" s="128">
+        <v>76</v>
+      </c>
+      <c r="B57" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C57" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D57" s="29"/>
+      <c r="E57" s="21">
+        <v>7</v>
+      </c>
+      <c r="F57" s="68" t="s">
+        <v>512</v>
+      </c>
+      <c r="G57" s="52" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="17">
+      <c r="A58" s="128">
+        <v>77</v>
+      </c>
+      <c r="B58" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C58" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D58" s="29"/>
+      <c r="E58" s="21">
+        <v>8</v>
+      </c>
+      <c r="F58" s="68" t="s">
+        <v>513</v>
+      </c>
+      <c r="G58" s="52" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="17">
+      <c r="A59" s="128">
+        <v>78</v>
+      </c>
+      <c r="B59" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C59" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D59" s="29"/>
+      <c r="E59" s="21">
+        <v>9</v>
+      </c>
+      <c r="F59" s="68" t="s">
+        <v>514</v>
+      </c>
+      <c r="G59" s="52" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="17">
+      <c r="A60" s="128">
+        <v>79</v>
+      </c>
+      <c r="B60" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C60" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D60" s="29"/>
+      <c r="E60" s="21">
+        <v>10</v>
+      </c>
+      <c r="F60" s="68" t="s">
+        <v>515</v>
+      </c>
+      <c r="G60" s="52" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="18" thickBot="1">
+      <c r="A61" s="129">
+        <v>81</v>
+      </c>
+      <c r="B61" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="C61" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="D61" s="46"/>
+      <c r="E61" s="25">
+        <v>12</v>
+      </c>
+      <c r="F61" s="71" t="s">
+        <v>517</v>
+      </c>
+      <c r="G61" s="130" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="17">
+      <c r="A62" s="127">
+        <v>83</v>
+      </c>
+      <c r="B62" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="C62" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D62" s="33"/>
+      <c r="E62" s="24">
+        <v>1</v>
+      </c>
+      <c r="F62" s="70" t="s">
+        <v>518</v>
+      </c>
+      <c r="G62" s="51" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="34">
+      <c r="A63" s="128">
+        <v>85</v>
+      </c>
+      <c r="B63" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C63" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63" s="29"/>
+      <c r="E63" s="21">
+        <v>3</v>
+      </c>
+      <c r="F63" s="68" t="s">
+        <v>519</v>
+      </c>
+      <c r="G63" s="49" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="17">
+      <c r="A64" s="128">
+        <v>86</v>
+      </c>
+      <c r="B64" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C64" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="D64" s="29"/>
+      <c r="E64" s="21">
+        <v>4</v>
+      </c>
+      <c r="F64" s="68" t="s">
+        <v>520</v>
+      </c>
+      <c r="G64" s="52" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="17">
+      <c r="A65" s="128">
+        <v>87</v>
+      </c>
+      <c r="B65" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C65" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="D65" s="29"/>
+      <c r="E65" s="21">
+        <v>5</v>
+      </c>
+      <c r="F65" s="68" t="s">
+        <v>521</v>
+      </c>
+      <c r="G65" s="49" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="17">
+      <c r="A66" s="128">
+        <v>89</v>
+      </c>
+      <c r="B66" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C66" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="D66" s="29"/>
+      <c r="E66" s="21">
+        <v>7</v>
+      </c>
+      <c r="F66" s="68" t="s">
+        <v>523</v>
+      </c>
+      <c r="G66" s="52" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="17">
+      <c r="A67" s="128">
+        <v>91</v>
+      </c>
+      <c r="B67" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C67" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D67" s="29"/>
+      <c r="E67" s="21">
+        <v>9</v>
+      </c>
+      <c r="F67" s="68" t="s">
+        <v>525</v>
+      </c>
+      <c r="G67" s="52" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="17">
+      <c r="A68" s="128">
+        <v>92</v>
+      </c>
+      <c r="B68" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C68" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="D68" s="29"/>
+      <c r="E68" s="21">
+        <v>10</v>
+      </c>
+      <c r="F68" s="68" t="s">
+        <v>526</v>
+      </c>
+      <c r="G68" s="52" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="17">
+      <c r="A69" s="128">
+        <v>93</v>
+      </c>
+      <c r="B69" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C69" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="D69" s="29"/>
+      <c r="E69" s="21">
+        <v>11</v>
+      </c>
+      <c r="F69" s="68" t="s">
+        <v>527</v>
+      </c>
+      <c r="G69" s="52" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="17">
+      <c r="A70" s="128">
+        <v>94</v>
+      </c>
+      <c r="B70" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C70" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="D70" s="29"/>
+      <c r="E70" s="21">
+        <v>12</v>
+      </c>
+      <c r="F70" s="68" t="s">
+        <v>528</v>
+      </c>
+      <c r="G70" s="52" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="18" thickBot="1">
+      <c r="A71" s="129">
+        <v>95</v>
+      </c>
+      <c r="B71" s="113" t="s">
+        <v>103</v>
+      </c>
+      <c r="C71" s="114" t="s">
+        <v>26</v>
+      </c>
+      <c r="D71" s="115"/>
+      <c r="E71" s="116">
+        <v>13</v>
+      </c>
+      <c r="F71" s="117" t="s">
+        <v>529</v>
+      </c>
+      <c r="G71" s="53" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="17">
+      <c r="A72" s="127">
+        <v>96</v>
+      </c>
+      <c r="B72" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="C72" s="132" t="s">
+        <v>129</v>
+      </c>
+      <c r="D72" s="33"/>
+      <c r="E72" s="24">
+        <v>1</v>
+      </c>
+      <c r="F72" s="70" t="s">
+        <v>530</v>
+      </c>
+      <c r="G72" s="51" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="17">
+      <c r="A73" s="128">
+        <v>97</v>
+      </c>
+      <c r="B73" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C73" s="97" t="s">
+        <v>129</v>
+      </c>
+      <c r="D73" s="29"/>
+      <c r="E73" s="21">
+        <v>2</v>
+      </c>
+      <c r="F73" s="68" t="s">
+        <v>531</v>
+      </c>
+      <c r="G73" s="52" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="17">
+      <c r="A74" s="128">
+        <v>98</v>
+      </c>
+      <c r="B74" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C74" s="97" t="s">
+        <v>129</v>
+      </c>
+      <c r="D74" s="29"/>
+      <c r="E74" s="21">
+        <v>3</v>
+      </c>
+      <c r="F74" s="68" t="s">
+        <v>532</v>
+      </c>
+      <c r="G74" s="52" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="17">
+      <c r="A75" s="128">
+        <v>100</v>
+      </c>
+      <c r="B75" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C75" s="97" t="s">
+        <v>122</v>
+      </c>
+      <c r="D75" s="29"/>
+      <c r="E75" s="21">
+        <v>5</v>
+      </c>
+      <c r="F75" s="68" t="s">
+        <v>534</v>
+      </c>
+      <c r="G75" s="52" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="17">
+      <c r="A76" s="128">
+        <v>101</v>
+      </c>
+      <c r="B76" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C76" s="97" t="s">
+        <v>122</v>
+      </c>
+      <c r="D76" s="29"/>
+      <c r="E76" s="21">
+        <v>6</v>
+      </c>
+      <c r="F76" s="68" t="s">
+        <v>535</v>
+      </c>
+      <c r="G76" s="52" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="17">
+      <c r="A77" s="128">
+        <v>103</v>
+      </c>
+      <c r="B77" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C77" s="97" t="s">
+        <v>129</v>
+      </c>
+      <c r="D77" s="29"/>
+      <c r="E77" s="21">
+        <v>8</v>
+      </c>
+      <c r="F77" s="68" t="s">
+        <v>537</v>
+      </c>
+      <c r="G77" s="49" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="17">
+      <c r="A78" s="128">
+        <v>105</v>
+      </c>
+      <c r="B78" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C78" s="97" t="s">
+        <v>129</v>
+      </c>
+      <c r="D78" s="29"/>
+      <c r="E78" s="21">
+        <v>10</v>
+      </c>
+      <c r="F78" s="68" t="s">
+        <v>538</v>
+      </c>
+      <c r="G78" s="52" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="17">
+      <c r="A79" s="128">
+        <v>106</v>
+      </c>
+      <c r="B79" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C79" s="97" t="s">
+        <v>129</v>
+      </c>
+      <c r="D79" s="29"/>
+      <c r="E79" s="21">
+        <v>11</v>
+      </c>
+      <c r="F79" s="68" t="s">
+        <v>539</v>
+      </c>
+      <c r="G79" s="52" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="17">
+      <c r="A80" s="128">
+        <v>107</v>
+      </c>
+      <c r="B80" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C80" s="97" t="s">
+        <v>129</v>
+      </c>
+      <c r="D80" s="29"/>
+      <c r="E80" s="21">
+        <v>12</v>
+      </c>
+      <c r="F80" s="68" t="s">
+        <v>540</v>
+      </c>
+      <c r="G80" s="52" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="18" thickBot="1">
+      <c r="A81" s="129">
+        <v>108</v>
+      </c>
+      <c r="B81" s="113" t="s">
+        <v>121</v>
+      </c>
+      <c r="C81" s="114" t="s">
+        <v>129</v>
+      </c>
+      <c r="D81" s="115"/>
+      <c r="E81" s="116">
+        <v>13</v>
+      </c>
+      <c r="F81" s="117" t="s">
+        <v>541</v>
+      </c>
+      <c r="G81" s="53" t="s">
+        <v>293</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="68" fitToHeight="4" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:G100"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="A58" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="H61" sqref="H1:Q1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="7" max="7" width="63.140625" customWidth="1"/>
+    <col min="7" max="7" width="63.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="84" customFormat="1" ht="15.75">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="84" customFormat="1" ht="17">
       <c r="A3" s="82">
         <v>9</v>
       </c>
@@ -8034,7 +9863,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="84" customFormat="1" ht="15.75">
+    <row r="4" spans="1:7" s="84" customFormat="1" ht="17">
       <c r="A4" s="82">
         <v>11</v>
       </c>
@@ -8057,7 +9886,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="84" customFormat="1" ht="15.75">
+    <row r="5" spans="1:7" s="84" customFormat="1" ht="17">
       <c r="A5" s="82">
         <v>12</v>
       </c>
@@ -8080,7 +9909,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="84" customFormat="1" ht="15.75">
+    <row r="6" spans="1:7" s="84" customFormat="1" ht="17">
       <c r="A6" s="82">
         <v>13</v>
       </c>
@@ -8103,7 +9932,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="84" customFormat="1" ht="15.75">
+    <row r="7" spans="1:7" s="84" customFormat="1" ht="17">
       <c r="A7" s="82">
         <v>15</v>
       </c>
@@ -8126,7 +9955,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="84" customFormat="1" ht="15.75">
+    <row r="8" spans="1:7" s="84" customFormat="1" ht="17">
       <c r="A8" s="82">
         <v>16</v>
       </c>
@@ -8149,7 +9978,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="84" customFormat="1" ht="15.75">
+    <row r="9" spans="1:7" s="84" customFormat="1" ht="17">
       <c r="A9" s="82">
         <v>24</v>
       </c>
@@ -8170,7 +9999,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="84" customFormat="1" ht="15.75">
+    <row r="10" spans="1:7" s="84" customFormat="1" ht="17">
       <c r="A10" s="82">
         <v>25</v>
       </c>
@@ -8191,7 +10020,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="84" customFormat="1" ht="15.75">
+    <row r="11" spans="1:7" s="84" customFormat="1" ht="17">
       <c r="A11" s="82">
         <v>27</v>
       </c>
@@ -8212,7 +10041,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="84" customFormat="1" ht="31.5">
+    <row r="12" spans="1:7" s="84" customFormat="1" ht="34">
       <c r="A12" s="82">
         <v>32</v>
       </c>
@@ -8233,7 +10062,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="84" customFormat="1" ht="15.75">
+    <row r="13" spans="1:7" s="84" customFormat="1" ht="17">
       <c r="A13" s="82">
         <v>34</v>
       </c>
@@ -8254,7 +10083,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="84" customFormat="1" ht="31.5">
+    <row r="14" spans="1:7" s="84" customFormat="1" ht="34">
       <c r="A14" s="82">
         <v>42</v>
       </c>
@@ -8275,7 +10104,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="84" customFormat="1" ht="15.75">
+    <row r="15" spans="1:7" s="84" customFormat="1" ht="17">
       <c r="A15" s="82">
         <v>47</v>
       </c>
@@ -8296,7 +10125,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="84" customFormat="1" ht="16.5" thickBot="1">
+    <row r="16" spans="1:7" s="84" customFormat="1" ht="18" thickBot="1">
       <c r="A16" s="82">
         <v>50</v>
       </c>
@@ -8317,7 +10146,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="84" customFormat="1" ht="15.75">
+    <row r="17" spans="1:7" s="84" customFormat="1" ht="17">
       <c r="A17" s="82">
         <v>51</v>
       </c>
@@ -8338,7 +10167,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="84" customFormat="1" ht="15.75">
+    <row r="18" spans="1:7" s="84" customFormat="1" ht="17">
       <c r="A18" s="82">
         <v>53</v>
       </c>
@@ -8359,7 +10188,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="84" customFormat="1" ht="15.75">
+    <row r="19" spans="1:7" s="84" customFormat="1" ht="17">
       <c r="A19" s="82">
         <v>55</v>
       </c>
@@ -8380,7 +10209,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="84" customFormat="1" ht="15.75">
+    <row r="20" spans="1:7" s="84" customFormat="1" ht="17">
       <c r="A20" s="82">
         <v>60</v>
       </c>
@@ -8403,7 +10232,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="84" customFormat="1" ht="15.75">
+    <row r="21" spans="1:7" s="84" customFormat="1" ht="17">
       <c r="A21" s="82">
         <v>62</v>
       </c>
@@ -8426,7 +10255,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="84" customFormat="1" ht="15.75">
+    <row r="22" spans="1:7" s="84" customFormat="1" ht="17">
       <c r="A22" s="82">
         <v>70</v>
       </c>
@@ -8449,7 +10278,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="84" customFormat="1" ht="15.75">
+    <row r="23" spans="1:7" s="84" customFormat="1" ht="17">
       <c r="A23" s="82">
         <v>73</v>
       </c>
@@ -8470,7 +10299,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="84" customFormat="1" ht="15.75">
+    <row r="24" spans="1:7" s="84" customFormat="1" ht="17">
       <c r="A24" s="82">
         <v>77</v>
       </c>
@@ -8491,7 +10320,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="84" customFormat="1" ht="31.5">
+    <row r="25" spans="1:7" s="84" customFormat="1" ht="34">
       <c r="A25" s="82">
         <v>85</v>
       </c>
@@ -8512,7 +10341,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="84" customFormat="1" ht="15.75">
+    <row r="26" spans="1:7" s="84" customFormat="1" ht="17">
       <c r="A26" s="82">
         <v>87</v>
       </c>
@@ -8533,7 +10362,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="84" customFormat="1" ht="15.75">
+    <row r="27" spans="1:7" s="84" customFormat="1" ht="17">
       <c r="A27" s="82">
         <v>90</v>
       </c>
@@ -8554,7 +10383,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="84" customFormat="1" ht="15.75">
+    <row r="28" spans="1:7" s="84" customFormat="1" ht="17">
       <c r="A28" s="82">
         <v>94</v>
       </c>
@@ -8575,7 +10404,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="84" customFormat="1" ht="16.5" thickBot="1">
+    <row r="29" spans="1:7" s="84" customFormat="1" ht="18" thickBot="1">
       <c r="A29" s="82">
         <v>97</v>
       </c>
@@ -8596,7 +10425,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="84" customFormat="1" ht="15.75">
+    <row r="30" spans="1:7" s="84" customFormat="1" ht="17">
       <c r="A30" s="91">
         <v>98</v>
       </c>
@@ -8617,7 +10446,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="84" customFormat="1" ht="31.5">
+    <row r="31" spans="1:7" s="84" customFormat="1" ht="17">
       <c r="A31" s="91">
         <v>99</v>
       </c>
@@ -8638,7 +10467,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="84" customFormat="1" ht="15.75">
+    <row r="32" spans="1:7" s="84" customFormat="1" ht="17">
       <c r="A32" s="91">
         <v>103</v>
       </c>
@@ -8661,10 +10490,10 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="5" customFormat="1" ht="31.5">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="5" customFormat="1" ht="34">
       <c r="A35" s="20">
         <v>10</v>
       </c>
@@ -8687,7 +10516,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="36" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A36" s="20">
         <v>11</v>
       </c>
@@ -8710,7 +10539,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="37" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A37" s="20">
         <v>13</v>
       </c>
@@ -8733,7 +10562,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="5" customFormat="1" ht="31.5">
+    <row r="38" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A38" s="20">
         <v>20</v>
       </c>
@@ -8754,7 +10583,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="39" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A39" s="20">
         <v>21</v>
       </c>
@@ -8775,7 +10604,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="40" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A40" s="20">
         <v>23</v>
       </c>
@@ -8796,7 +10625,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="41" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A41" s="20">
         <v>37</v>
       </c>
@@ -8817,7 +10646,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="5" customFormat="1" ht="31.5">
+    <row r="42" spans="1:7" s="5" customFormat="1" ht="34">
       <c r="A42" s="20">
         <v>38</v>
       </c>
@@ -8838,7 +10667,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="43" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A43" s="20">
         <v>39</v>
       </c>
@@ -8859,7 +10688,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="44" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A44" s="20">
         <v>40</v>
       </c>
@@ -8880,7 +10709,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="5" customFormat="1" ht="31.5">
+    <row r="45" spans="1:7" s="5" customFormat="1" ht="34">
       <c r="A45" s="20">
         <v>41</v>
       </c>
@@ -8901,7 +10730,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="46" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A46" s="20">
         <v>43</v>
       </c>
@@ -8922,7 +10751,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="5" customFormat="1" ht="16.5" thickBot="1">
+    <row r="47" spans="1:7" s="5" customFormat="1" ht="18" thickBot="1">
       <c r="A47" s="20">
         <v>47</v>
       </c>
@@ -8943,7 +10772,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="48" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A48" s="20">
         <v>48</v>
       </c>
@@ -8964,7 +10793,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="49" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A49" s="20">
         <v>49</v>
       </c>
@@ -8985,7 +10814,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="50" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A50" s="20">
         <v>50</v>
       </c>
@@ -9006,7 +10835,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="51" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A51" s="20">
         <v>54</v>
       </c>
@@ -9027,7 +10856,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="52" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A52" s="20">
         <v>55</v>
       </c>
@@ -9048,7 +10877,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="53" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A53" s="20">
         <v>60</v>
       </c>
@@ -9071,7 +10900,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="54" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A54" s="20">
         <v>62</v>
       </c>
@@ -9094,7 +10923,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="55" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A55" s="20">
         <v>64</v>
       </c>
@@ -9117,7 +10946,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="5" customFormat="1" ht="31.5">
+    <row r="56" spans="1:7" s="5" customFormat="1" ht="34">
       <c r="A56" s="20">
         <v>68</v>
       </c>
@@ -9140,7 +10969,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="57" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A57" s="20">
         <v>73</v>
       </c>
@@ -9163,7 +10992,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="58" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A58" s="20">
         <v>74</v>
       </c>
@@ -9186,7 +11015,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="59" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A59" s="20">
         <v>75</v>
       </c>
@@ -9209,7 +11038,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="60" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A60" s="20">
         <v>80</v>
       </c>
@@ -9230,7 +11059,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="5" customFormat="1" ht="31.5">
+    <row r="61" spans="1:7" s="5" customFormat="1" ht="17">
       <c r="A61" s="20">
         <v>82</v>
       </c>
@@ -9251,7 +11080,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="5" customFormat="1" ht="16.5" thickBot="1">
+    <row r="62" spans="1:7" s="5" customFormat="1" ht="18" thickBot="1">
       <c r="A62" s="20">
         <v>84</v>
       </c>
@@ -9272,7 +11101,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="4" customFormat="1" ht="15.75">
+    <row r="63" spans="1:7" s="4" customFormat="1" ht="17">
       <c r="A63" s="92">
         <v>89</v>
       </c>
@@ -9293,7 +11122,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="1" customFormat="1" ht="15.75">
+    <row r="64" spans="1:7" s="1" customFormat="1" ht="17">
       <c r="A64" s="92">
         <v>98</v>
       </c>
@@ -9314,7 +11143,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="65" spans="1:7" s="1" customFormat="1" ht="15.75">
+    <row r="65" spans="1:7" s="1" customFormat="1" ht="17">
       <c r="A65" s="92">
         <v>99</v>
       </c>
@@ -9335,7 +11164,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="66" spans="1:7" s="2" customFormat="1" ht="31.5">
+    <row r="66" spans="1:7" s="2" customFormat="1" ht="34">
       <c r="A66" s="92">
         <v>101</v>
       </c>
@@ -9356,7 +11185,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="67" spans="1:7" s="2" customFormat="1" ht="31.5">
+    <row r="67" spans="1:7" s="2" customFormat="1" ht="17">
       <c r="A67" s="92">
         <v>103</v>
       </c>
@@ -9377,7 +11206,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="68" spans="1:7" s="2" customFormat="1" ht="15.75">
+    <row r="68" spans="1:7" s="2" customFormat="1" ht="17">
       <c r="A68" s="92">
         <v>105</v>
       </c>
@@ -9398,7 +11227,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="69" spans="1:7" s="2" customFormat="1" ht="15.75">
+    <row r="69" spans="1:7" s="2" customFormat="1" ht="17">
       <c r="A69" s="92">
         <v>106</v>
       </c>
@@ -9419,7 +11248,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="70" spans="1:7" s="2" customFormat="1" ht="31.5">
+    <row r="70" spans="1:7" s="2" customFormat="1" ht="34">
       <c r="A70" s="92">
         <v>116</v>
       </c>
@@ -9442,10 +11271,10 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="31.5">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="34">
       <c r="A73" s="14">
         <v>3</v>
       </c>
@@ -9462,13 +11291,13 @@
         <v>3</v>
       </c>
       <c r="F73" s="68" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G73" s="48" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="15.75">
+    <row r="74" spans="1:7" ht="17">
       <c r="A74" s="14">
         <v>8</v>
       </c>
@@ -9485,13 +11314,13 @@
         <v>8</v>
       </c>
       <c r="F74" s="68" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="G74" s="48" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="31.5">
+    <row r="75" spans="1:7" ht="34">
       <c r="A75" s="14">
         <v>9</v>
       </c>
@@ -9506,13 +11335,13 @@
         <v>9</v>
       </c>
       <c r="F75" s="68" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="G75" s="50" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="15.75">
+    <row r="76" spans="1:7" ht="17">
       <c r="A76" s="14">
         <v>16</v>
       </c>
@@ -9527,13 +11356,13 @@
         <v>3</v>
       </c>
       <c r="F76" s="68" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="G76" s="48" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="31.5">
+    <row r="77" spans="1:7" ht="17">
       <c r="A77" s="14">
         <v>22</v>
       </c>
@@ -9548,13 +11377,13 @@
         <v>9</v>
       </c>
       <c r="F77" s="68" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="G77" s="48" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="15.75">
+    <row r="78" spans="1:7" ht="17">
       <c r="A78" s="14">
         <v>24</v>
       </c>
@@ -9569,13 +11398,13 @@
         <v>11</v>
       </c>
       <c r="F78" s="68" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="G78" s="48" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="31.5">
+    <row r="79" spans="1:7" ht="34">
       <c r="A79" s="14">
         <v>29</v>
       </c>
@@ -9590,13 +11419,13 @@
         <v>3</v>
       </c>
       <c r="F79" s="68" t="s">
-        <v>440</v>
+        <v>418</v>
       </c>
       <c r="G79" s="48" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="15.75">
+    <row r="80" spans="1:7" ht="17">
       <c r="A80" s="14">
         <v>36</v>
       </c>
@@ -9611,13 +11440,13 @@
         <v>10</v>
       </c>
       <c r="F80" s="68" t="s">
-        <v>447</v>
+        <v>419</v>
       </c>
       <c r="G80" s="48" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="15.75">
+    <row r="81" spans="1:7" ht="17">
       <c r="A81" s="14">
         <v>38</v>
       </c>
@@ -9632,13 +11461,13 @@
         <v>12</v>
       </c>
       <c r="F81" s="68" t="s">
-        <v>449</v>
+        <v>420</v>
       </c>
       <c r="G81" s="48" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="15.75">
+    <row r="82" spans="1:7" ht="17">
       <c r="A82" s="14">
         <v>40</v>
       </c>
@@ -9653,13 +11482,13 @@
         <v>1</v>
       </c>
       <c r="F82" s="68" t="s">
-        <v>451</v>
+        <v>421</v>
       </c>
       <c r="G82" s="48" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="15.75">
+    <row r="83" spans="1:7" ht="17">
       <c r="A83" s="14">
         <v>42</v>
       </c>
@@ -9674,13 +11503,13 @@
         <v>3</v>
       </c>
       <c r="F83" s="68" t="s">
-        <v>453</v>
+        <v>422</v>
       </c>
       <c r="G83" s="48" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="84" spans="1:7" s="31" customFormat="1" ht="16.5" thickBot="1">
+    <row r="84" spans="1:7" s="31" customFormat="1" ht="18" thickBot="1">
       <c r="A84" s="14">
         <v>44</v>
       </c>
@@ -9695,13 +11524,13 @@
         <v>5</v>
       </c>
       <c r="F84" s="68" t="s">
-        <v>455</v>
+        <v>423</v>
       </c>
       <c r="G84" s="100" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="15.75">
+    <row r="85" spans="1:7" ht="17">
       <c r="A85" s="14">
         <v>52</v>
       </c>
@@ -9716,13 +11545,13 @@
         <v>13</v>
       </c>
       <c r="F85" s="68" t="s">
-        <v>463</v>
+        <v>424</v>
       </c>
       <c r="G85" s="48" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="31.5">
+    <row r="86" spans="1:7" ht="34">
       <c r="A86" s="14">
         <v>53</v>
       </c>
@@ -9737,13 +11566,13 @@
         <v>14</v>
       </c>
       <c r="F86" s="68" t="s">
-        <v>464</v>
+        <v>425</v>
       </c>
       <c r="G86" s="48" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="15.75">
+    <row r="87" spans="1:7" ht="17">
       <c r="A87" s="14">
         <v>58</v>
       </c>
@@ -9760,13 +11589,13 @@
         <v>4</v>
       </c>
       <c r="F87" s="68" t="s">
-        <v>469</v>
+        <v>426</v>
       </c>
       <c r="G87" s="48" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="15.75">
+    <row r="88" spans="1:7" ht="17">
       <c r="A88" s="14">
         <v>59</v>
       </c>
@@ -9783,13 +11612,13 @@
         <v>5</v>
       </c>
       <c r="F88" s="68" t="s">
-        <v>470</v>
+        <v>427</v>
       </c>
       <c r="G88" s="48" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="15.75">
+    <row r="89" spans="1:7" ht="17">
       <c r="A89" s="14">
         <v>61</v>
       </c>
@@ -9806,13 +11635,13 @@
         <v>7</v>
       </c>
       <c r="F89" s="68" t="s">
-        <v>472</v>
+        <v>428</v>
       </c>
       <c r="G89" s="48" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="15.75">
+    <row r="90" spans="1:7" ht="17">
       <c r="A90" s="14">
         <v>63</v>
       </c>
@@ -9829,13 +11658,13 @@
         <v>9</v>
       </c>
       <c r="F90" s="68" t="s">
-        <v>474</v>
+        <v>429</v>
       </c>
       <c r="G90" s="48" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="15.75">
+    <row r="91" spans="1:7" ht="17">
       <c r="A91" s="14">
         <v>64</v>
       </c>
@@ -9852,13 +11681,13 @@
         <v>10</v>
       </c>
       <c r="F91" s="68" t="s">
-        <v>475</v>
+        <v>430</v>
       </c>
       <c r="G91" s="48" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="15.75">
+    <row r="92" spans="1:7" ht="17">
       <c r="A92" s="14">
         <v>70</v>
       </c>
@@ -9873,13 +11702,13 @@
         <v>1</v>
       </c>
       <c r="F92" s="68" t="s">
-        <v>481</v>
+        <v>431</v>
       </c>
       <c r="G92" s="48" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="15.75">
+    <row r="93" spans="1:7" ht="17">
       <c r="A93" s="14">
         <v>80</v>
       </c>
@@ -9894,13 +11723,13 @@
         <v>11</v>
       </c>
       <c r="F93" s="68" t="s">
-        <v>491</v>
+        <v>432</v>
       </c>
       <c r="G93" s="48" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="15.75">
+    <row r="94" spans="1:7" ht="17">
       <c r="A94" s="14">
         <v>82</v>
       </c>
@@ -9915,13 +11744,13 @@
         <v>13</v>
       </c>
       <c r="F94" s="72" t="s">
-        <v>493</v>
+        <v>433</v>
       </c>
       <c r="G94" s="50" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="15.75">
+    <row r="95" spans="1:7" ht="17">
       <c r="A95" s="14">
         <v>84</v>
       </c>
@@ -9936,13 +11765,13 @@
         <v>2</v>
       </c>
       <c r="F95" s="68" t="s">
-        <v>495</v>
+        <v>434</v>
       </c>
       <c r="G95" s="50" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="31.5">
+    <row r="96" spans="1:7" ht="34">
       <c r="A96" s="14">
         <v>88</v>
       </c>
@@ -9957,13 +11786,13 @@
         <v>6</v>
       </c>
       <c r="F96" s="68" t="s">
-        <v>499</v>
+        <v>435</v>
       </c>
       <c r="G96" s="48" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="97" spans="1:7" s="31" customFormat="1" ht="16.5" thickBot="1">
+    <row r="97" spans="1:7" s="31" customFormat="1" ht="18" thickBot="1">
       <c r="A97" s="15">
         <v>90</v>
       </c>
@@ -9978,13 +11807,13 @@
         <v>8</v>
       </c>
       <c r="F97" s="71" t="s">
-        <v>501</v>
+        <v>436</v>
       </c>
       <c r="G97" s="100" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="15.75">
+    <row r="98" spans="1:7" ht="17">
       <c r="A98" s="73">
         <v>99</v>
       </c>
@@ -9999,13 +11828,13 @@
         <v>4</v>
       </c>
       <c r="F98" s="68" t="s">
-        <v>510</v>
+        <v>437</v>
       </c>
       <c r="G98" s="98" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="15.75">
+    <row r="99" spans="1:7" ht="17">
       <c r="A99" s="73">
         <v>102</v>
       </c>
@@ -10020,13 +11849,13 @@
         <v>7</v>
       </c>
       <c r="F99" s="68" t="s">
-        <v>513</v>
+        <v>438</v>
       </c>
       <c r="G99" s="98" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="15.75">
+    <row r="100" spans="1:7" ht="17">
       <c r="A100" s="73">
         <v>104</v>
       </c>
@@ -10041,10 +11870,1225 @@
         <v>9</v>
       </c>
       <c r="F100" s="68" t="s">
-        <v>515</v>
+        <v>439</v>
       </c>
       <c r="G100" s="98" t="s">
         <v>289</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F303D1AF-32B3-D847-988A-41E7647C4224}">
+  <dimension ref="A1:D80"/>
+  <sheetViews>
+    <sheetView zoomScale="221" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C80"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="136">
+        <v>1</v>
+      </c>
+      <c r="C1" s="136" t="s">
+        <v>445</v>
+      </c>
+      <c r="D1" s="136">
+        <f>A1-B1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="136">
+        <v>2</v>
+      </c>
+      <c r="C2" s="136" t="s">
+        <v>446</v>
+      </c>
+      <c r="D2" s="136">
+        <f t="shared" ref="D2:D65" si="0">A2-B2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3" s="136">
+        <v>4</v>
+      </c>
+      <c r="C3" s="136" t="s">
+        <v>447</v>
+      </c>
+      <c r="D3" s="136">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4" s="136">
+        <v>5</v>
+      </c>
+      <c r="C4" s="136" t="s">
+        <v>448</v>
+      </c>
+      <c r="D4" s="136">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5" s="136">
+        <v>6</v>
+      </c>
+      <c r="C5" s="136" t="s">
+        <v>449</v>
+      </c>
+      <c r="D5" s="136">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16">
+      <c r="A6">
+        <v>7</v>
+      </c>
+      <c r="B6" s="136">
+        <v>7</v>
+      </c>
+      <c r="C6" s="136" t="s">
+        <v>450</v>
+      </c>
+      <c r="D6" s="136">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7" s="136">
+        <v>10</v>
+      </c>
+      <c r="C7" s="136" t="s">
+        <v>453</v>
+      </c>
+      <c r="D7" s="136">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16">
+      <c r="A8">
+        <v>11</v>
+      </c>
+      <c r="B8" s="136">
+        <v>11</v>
+      </c>
+      <c r="C8" s="136" t="s">
+        <v>454</v>
+      </c>
+      <c r="D8" s="136">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16">
+      <c r="A9">
+        <v>12</v>
+      </c>
+      <c r="B9" s="136">
+        <v>12</v>
+      </c>
+      <c r="C9" s="136" t="s">
+        <v>455</v>
+      </c>
+      <c r="D9" s="136">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16">
+      <c r="A10">
+        <v>13</v>
+      </c>
+      <c r="B10" s="136">
+        <v>13</v>
+      </c>
+      <c r="C10" s="136" t="s">
+        <v>456</v>
+      </c>
+      <c r="D10" s="136">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16">
+      <c r="A11">
+        <v>14</v>
+      </c>
+      <c r="B11" s="136">
+        <v>14</v>
+      </c>
+      <c r="C11" s="136" t="s">
+        <v>457</v>
+      </c>
+      <c r="D11" s="136">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16">
+      <c r="A12">
+        <v>15</v>
+      </c>
+      <c r="B12" s="136">
+        <v>15</v>
+      </c>
+      <c r="C12" s="136" t="s">
+        <v>458</v>
+      </c>
+      <c r="D12" s="136">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16">
+      <c r="A13">
+        <v>17</v>
+      </c>
+      <c r="B13" s="136">
+        <v>17</v>
+      </c>
+      <c r="C13" s="136" t="s">
+        <v>459</v>
+      </c>
+      <c r="D13" s="136">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16">
+      <c r="A14">
+        <v>18</v>
+      </c>
+      <c r="B14" s="136">
+        <v>18</v>
+      </c>
+      <c r="C14" s="136" t="s">
+        <v>460</v>
+      </c>
+      <c r="D14" s="136">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16">
+      <c r="A15">
+        <v>19</v>
+      </c>
+      <c r="B15" s="136">
+        <v>19</v>
+      </c>
+      <c r="C15" s="136" t="s">
+        <v>461</v>
+      </c>
+      <c r="D15" s="136">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16">
+      <c r="A16">
+        <v>20</v>
+      </c>
+      <c r="B16" s="136">
+        <v>20</v>
+      </c>
+      <c r="C16" s="136" t="s">
+        <v>462</v>
+      </c>
+      <c r="D16" s="136">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16">
+      <c r="A17">
+        <v>21</v>
+      </c>
+      <c r="B17" s="136">
+        <v>21</v>
+      </c>
+      <c r="C17" s="136" t="s">
+        <v>463</v>
+      </c>
+      <c r="D17" s="136">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16">
+      <c r="A18">
+        <v>23</v>
+      </c>
+      <c r="B18" s="136">
+        <v>23</v>
+      </c>
+      <c r="C18" s="136" t="s">
+        <v>465</v>
+      </c>
+      <c r="D18" s="136">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16">
+      <c r="A19">
+        <v>25</v>
+      </c>
+      <c r="B19" s="136">
+        <v>25</v>
+      </c>
+      <c r="C19" s="136" t="s">
+        <v>467</v>
+      </c>
+      <c r="D19" s="136">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="16">
+      <c r="A20">
+        <v>26</v>
+      </c>
+      <c r="B20" s="136">
+        <v>26</v>
+      </c>
+      <c r="C20" s="136" t="s">
+        <v>468</v>
+      </c>
+      <c r="D20" s="136">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="16">
+      <c r="A21">
+        <v>27</v>
+      </c>
+      <c r="B21" s="136">
+        <v>27</v>
+      </c>
+      <c r="C21" s="136" t="s">
+        <v>469</v>
+      </c>
+      <c r="D21" s="136">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="16">
+      <c r="A22">
+        <v>28</v>
+      </c>
+      <c r="B22" s="136">
+        <v>28</v>
+      </c>
+      <c r="C22" s="136" t="s">
+        <v>470</v>
+      </c>
+      <c r="D22" s="136">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="16">
+      <c r="A23">
+        <v>30</v>
+      </c>
+      <c r="B23" s="136">
+        <v>30</v>
+      </c>
+      <c r="C23" s="136" t="s">
+        <v>472</v>
+      </c>
+      <c r="D23" s="136">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="16">
+      <c r="A24">
+        <v>31</v>
+      </c>
+      <c r="B24" s="136">
+        <v>31</v>
+      </c>
+      <c r="C24" s="136" t="s">
+        <v>473</v>
+      </c>
+      <c r="D24" s="136">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="16">
+      <c r="A25">
+        <v>32</v>
+      </c>
+      <c r="B25" s="136">
+        <v>32</v>
+      </c>
+      <c r="C25" s="136" t="s">
+        <v>474</v>
+      </c>
+      <c r="D25" s="136">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="16">
+      <c r="A26">
+        <v>33</v>
+      </c>
+      <c r="B26" s="136">
+        <v>33</v>
+      </c>
+      <c r="C26" s="136" t="s">
+        <v>475</v>
+      </c>
+      <c r="D26" s="136">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="16">
+      <c r="A27">
+        <v>34</v>
+      </c>
+      <c r="B27" s="136">
+        <v>34</v>
+      </c>
+      <c r="C27" s="136" t="s">
+        <v>476</v>
+      </c>
+      <c r="D27" s="136">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="16">
+      <c r="A28">
+        <v>35</v>
+      </c>
+      <c r="B28" s="136">
+        <v>35</v>
+      </c>
+      <c r="C28" s="136" t="s">
+        <v>477</v>
+      </c>
+      <c r="D28" s="136">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="16">
+      <c r="A29">
+        <v>37</v>
+      </c>
+      <c r="B29" s="136">
+        <v>37</v>
+      </c>
+      <c r="C29" s="136" t="s">
+        <v>478</v>
+      </c>
+      <c r="D29" s="136">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="16">
+      <c r="A30">
+        <v>39</v>
+      </c>
+      <c r="B30" s="136">
+        <v>39</v>
+      </c>
+      <c r="C30" s="136" t="s">
+        <v>479</v>
+      </c>
+      <c r="D30" s="136">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="16">
+      <c r="A31">
+        <v>41</v>
+      </c>
+      <c r="B31" s="136">
+        <v>41</v>
+      </c>
+      <c r="C31" s="136" t="s">
+        <v>481</v>
+      </c>
+      <c r="D31" s="136">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="16">
+      <c r="A32">
+        <v>43</v>
+      </c>
+      <c r="B32" s="136">
+        <v>43</v>
+      </c>
+      <c r="C32" s="136" t="s">
+        <v>483</v>
+      </c>
+      <c r="D32" s="136">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="16">
+      <c r="A33">
+        <v>45</v>
+      </c>
+      <c r="B33" s="136">
+        <v>45</v>
+      </c>
+      <c r="C33" s="136" t="s">
+        <v>485</v>
+      </c>
+      <c r="D33" s="136">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="16">
+      <c r="A34">
+        <v>46</v>
+      </c>
+      <c r="B34" s="136">
+        <v>46</v>
+      </c>
+      <c r="C34" s="136" t="s">
+        <v>486</v>
+      </c>
+      <c r="D34" s="136">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="16">
+      <c r="A35">
+        <v>47</v>
+      </c>
+      <c r="B35" s="136">
+        <v>47</v>
+      </c>
+      <c r="C35" s="136" t="s">
+        <v>487</v>
+      </c>
+      <c r="D35" s="136">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="16">
+      <c r="A36">
+        <v>48</v>
+      </c>
+      <c r="B36" s="136">
+        <v>48</v>
+      </c>
+      <c r="C36" s="136" t="s">
+        <v>488</v>
+      </c>
+      <c r="D36" s="136">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="16">
+      <c r="A37">
+        <v>49</v>
+      </c>
+      <c r="B37" s="136">
+        <v>49</v>
+      </c>
+      <c r="C37" s="136" t="s">
+        <v>489</v>
+      </c>
+      <c r="D37" s="136">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="16">
+      <c r="A38">
+        <v>50</v>
+      </c>
+      <c r="B38" s="136">
+        <v>50</v>
+      </c>
+      <c r="C38" s="136" t="s">
+        <v>490</v>
+      </c>
+      <c r="D38" s="136">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="16">
+      <c r="A39">
+        <v>51</v>
+      </c>
+      <c r="B39" s="136">
+        <v>51</v>
+      </c>
+      <c r="C39" s="136" t="s">
+        <v>491</v>
+      </c>
+      <c r="D39" s="136">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="16">
+      <c r="A40">
+        <v>54</v>
+      </c>
+      <c r="B40" s="136">
+        <v>54</v>
+      </c>
+      <c r="C40" s="136" t="s">
+        <v>492</v>
+      </c>
+      <c r="D40" s="136">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="16">
+      <c r="A41">
+        <v>55</v>
+      </c>
+      <c r="B41" s="136">
+        <v>55</v>
+      </c>
+      <c r="C41" s="136" t="s">
+        <v>493</v>
+      </c>
+      <c r="D41" s="136">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="16">
+      <c r="A42">
+        <v>56</v>
+      </c>
+      <c r="B42" s="136">
+        <v>56</v>
+      </c>
+      <c r="C42" s="136" t="s">
+        <v>494</v>
+      </c>
+      <c r="D42" s="136">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="16">
+      <c r="A43">
+        <v>57</v>
+      </c>
+      <c r="B43" s="136">
+        <v>57</v>
+      </c>
+      <c r="C43" s="136" t="s">
+        <v>495</v>
+      </c>
+      <c r="D43" s="136">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="16">
+      <c r="A44">
+        <v>60</v>
+      </c>
+      <c r="B44" s="136">
+        <v>60</v>
+      </c>
+      <c r="C44" s="136" t="s">
+        <v>497</v>
+      </c>
+      <c r="D44" s="136">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="16">
+      <c r="A45">
+        <v>62</v>
+      </c>
+      <c r="B45" s="136">
+        <v>62</v>
+      </c>
+      <c r="C45" s="136" t="s">
+        <v>499</v>
+      </c>
+      <c r="D45" s="136">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="16">
+      <c r="A46">
+        <v>65</v>
+      </c>
+      <c r="B46" s="136">
+        <v>65</v>
+      </c>
+      <c r="C46" s="136" t="s">
+        <v>501</v>
+      </c>
+      <c r="D46" s="136">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="16">
+      <c r="A47">
+        <v>66</v>
+      </c>
+      <c r="B47" s="136">
+        <v>66</v>
+      </c>
+      <c r="C47" s="136" t="s">
+        <v>502</v>
+      </c>
+      <c r="D47" s="136">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="16">
+      <c r="A48">
+        <v>67</v>
+      </c>
+      <c r="B48" s="136">
+        <v>67</v>
+      </c>
+      <c r="C48" s="136" t="s">
+        <v>503</v>
+      </c>
+      <c r="D48" s="136">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="16">
+      <c r="A49">
+        <v>68</v>
+      </c>
+      <c r="B49" s="136">
+        <v>68</v>
+      </c>
+      <c r="C49" s="136" t="s">
+        <v>504</v>
+      </c>
+      <c r="D49" s="136">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="16">
+      <c r="A50">
+        <v>69</v>
+      </c>
+      <c r="B50" s="136">
+        <v>69</v>
+      </c>
+      <c r="C50" s="136" t="s">
+        <v>505</v>
+      </c>
+      <c r="D50" s="136">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="16">
+      <c r="A51">
+        <v>71</v>
+      </c>
+      <c r="B51" s="136">
+        <v>71</v>
+      </c>
+      <c r="C51" s="136" t="s">
+        <v>507</v>
+      </c>
+      <c r="D51" s="136">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="16">
+      <c r="A52">
+        <v>72</v>
+      </c>
+      <c r="B52" s="136">
+        <v>72</v>
+      </c>
+      <c r="C52" s="136" t="s">
+        <v>508</v>
+      </c>
+      <c r="D52" s="136">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="16">
+      <c r="A53">
+        <v>73</v>
+      </c>
+      <c r="B53" s="136">
+        <v>73</v>
+      </c>
+      <c r="C53" s="136" t="s">
+        <v>509</v>
+      </c>
+      <c r="D53" s="136">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="16">
+      <c r="A54">
+        <v>74</v>
+      </c>
+      <c r="B54" s="136">
+        <v>74</v>
+      </c>
+      <c r="C54" s="136" t="s">
+        <v>510</v>
+      </c>
+      <c r="D54" s="136">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="16">
+      <c r="A55">
+        <v>75</v>
+      </c>
+      <c r="B55" s="136">
+        <v>75</v>
+      </c>
+      <c r="C55" s="136" t="s">
+        <v>511</v>
+      </c>
+      <c r="D55" s="136">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="16">
+      <c r="A56">
+        <v>76</v>
+      </c>
+      <c r="B56" s="136">
+        <v>76</v>
+      </c>
+      <c r="C56" s="136" t="s">
+        <v>512</v>
+      </c>
+      <c r="D56" s="136">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="16">
+      <c r="A57">
+        <v>77</v>
+      </c>
+      <c r="B57" s="136">
+        <v>77</v>
+      </c>
+      <c r="C57" s="136" t="s">
+        <v>513</v>
+      </c>
+      <c r="D57" s="136">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="16">
+      <c r="A58">
+        <v>78</v>
+      </c>
+      <c r="B58" s="136">
+        <v>78</v>
+      </c>
+      <c r="C58" s="136" t="s">
+        <v>514</v>
+      </c>
+      <c r="D58" s="136">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="16">
+      <c r="A59">
+        <v>79</v>
+      </c>
+      <c r="B59" s="136">
+        <v>79</v>
+      </c>
+      <c r="C59" s="136" t="s">
+        <v>515</v>
+      </c>
+      <c r="D59" s="136">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="16">
+      <c r="A60">
+        <v>81</v>
+      </c>
+      <c r="B60" s="136">
+        <v>81</v>
+      </c>
+      <c r="C60" s="136" t="s">
+        <v>517</v>
+      </c>
+      <c r="D60" s="136">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="16">
+      <c r="A61">
+        <v>83</v>
+      </c>
+      <c r="B61" s="136">
+        <v>83</v>
+      </c>
+      <c r="C61" s="136" t="s">
+        <v>518</v>
+      </c>
+      <c r="D61" s="136">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="16">
+      <c r="A62">
+        <v>85</v>
+      </c>
+      <c r="B62" s="136">
+        <v>85</v>
+      </c>
+      <c r="C62" s="136" t="s">
+        <v>519</v>
+      </c>
+      <c r="D62" s="136">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="16">
+      <c r="A63">
+        <v>86</v>
+      </c>
+      <c r="B63" s="136">
+        <v>86</v>
+      </c>
+      <c r="C63" s="136" t="s">
+        <v>520</v>
+      </c>
+      <c r="D63" s="136">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="16">
+      <c r="A64">
+        <v>87</v>
+      </c>
+      <c r="B64" s="136">
+        <v>87</v>
+      </c>
+      <c r="C64" s="136" t="s">
+        <v>521</v>
+      </c>
+      <c r="D64" s="136">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="16">
+      <c r="A65">
+        <v>89</v>
+      </c>
+      <c r="B65" s="136">
+        <v>89</v>
+      </c>
+      <c r="C65" s="136" t="s">
+        <v>523</v>
+      </c>
+      <c r="D65" s="136">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="16">
+      <c r="A66">
+        <v>91</v>
+      </c>
+      <c r="B66" s="136">
+        <v>91</v>
+      </c>
+      <c r="C66" s="136" t="s">
+        <v>525</v>
+      </c>
+      <c r="D66" s="136">
+        <f t="shared" ref="D66:D80" si="1">A66-B66</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="16">
+      <c r="A67">
+        <v>92</v>
+      </c>
+      <c r="B67" s="136">
+        <v>92</v>
+      </c>
+      <c r="C67" s="136" t="s">
+        <v>526</v>
+      </c>
+      <c r="D67" s="136">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="16">
+      <c r="A68">
+        <v>93</v>
+      </c>
+      <c r="B68" s="136">
+        <v>93</v>
+      </c>
+      <c r="C68" s="136" t="s">
+        <v>527</v>
+      </c>
+      <c r="D68" s="136">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="16">
+      <c r="A69">
+        <v>94</v>
+      </c>
+      <c r="B69" s="136">
+        <v>94</v>
+      </c>
+      <c r="C69" s="136" t="s">
+        <v>528</v>
+      </c>
+      <c r="D69" s="136">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="16">
+      <c r="A70">
+        <v>95</v>
+      </c>
+      <c r="B70" s="136">
+        <v>95</v>
+      </c>
+      <c r="C70" s="136" t="s">
+        <v>529</v>
+      </c>
+      <c r="D70" s="136">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="16">
+      <c r="A71">
+        <v>96</v>
+      </c>
+      <c r="B71" s="136">
+        <v>96</v>
+      </c>
+      <c r="C71" s="136" t="s">
+        <v>530</v>
+      </c>
+      <c r="D71" s="136">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="16">
+      <c r="A72">
+        <v>97</v>
+      </c>
+      <c r="B72" s="136">
+        <v>97</v>
+      </c>
+      <c r="C72" s="136" t="s">
+        <v>531</v>
+      </c>
+      <c r="D72" s="136">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="16">
+      <c r="A73">
+        <v>98</v>
+      </c>
+      <c r="B73" s="136">
+        <v>98</v>
+      </c>
+      <c r="C73" s="136" t="s">
+        <v>532</v>
+      </c>
+      <c r="D73" s="136">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="16">
+      <c r="A74">
+        <v>100</v>
+      </c>
+      <c r="B74" s="136">
+        <v>100</v>
+      </c>
+      <c r="C74" s="136" t="s">
+        <v>534</v>
+      </c>
+      <c r="D74" s="136">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="16">
+      <c r="A75">
+        <v>101</v>
+      </c>
+      <c r="B75" s="136">
+        <v>101</v>
+      </c>
+      <c r="C75" s="136" t="s">
+        <v>535</v>
+      </c>
+      <c r="D75" s="136">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="16">
+      <c r="A76">
+        <v>103</v>
+      </c>
+      <c r="B76" s="136">
+        <v>103</v>
+      </c>
+      <c r="C76" s="136" t="s">
+        <v>537</v>
+      </c>
+      <c r="D76" s="136">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="16">
+      <c r="A77">
+        <v>105</v>
+      </c>
+      <c r="B77" s="136">
+        <v>105</v>
+      </c>
+      <c r="C77" s="136" t="s">
+        <v>538</v>
+      </c>
+      <c r="D77" s="136">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="16">
+      <c r="A78">
+        <v>106</v>
+      </c>
+      <c r="B78" s="136">
+        <v>106</v>
+      </c>
+      <c r="C78" s="136" t="s">
+        <v>539</v>
+      </c>
+      <c r="D78" s="136">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="16">
+      <c r="A79">
+        <v>107</v>
+      </c>
+      <c r="B79" s="136">
+        <v>107</v>
+      </c>
+      <c r="C79" s="136" t="s">
+        <v>540</v>
+      </c>
+      <c r="D79" s="136">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="16">
+      <c r="A80">
+        <v>108</v>
+      </c>
+      <c r="B80" s="137">
+        <v>108</v>
+      </c>
+      <c r="C80" s="137" t="s">
+        <v>541</v>
+      </c>
+      <c r="D80" s="136">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/7 Final Item Sets FEB 2019/SPM-2_Infant-Toddler_Items_FINAL.xlsx
+++ b/7 Final Item Sets FEB 2019/SPM-2_Infant-Toddler_Items_FINAL.xlsx
@@ -8,41 +8,46 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dherzberg/Desktop/SPM2-R/7 Final Item Sets FEB 2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9580F928-630E-5D45-84C5-3B11AD6F9169}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC3200F-8F43-D145-BC7B-B1D8569D4620}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4-9" sheetId="1" r:id="rId1"/>
     <sheet name="10-30" sheetId="4" r:id="rId2"/>
-    <sheet name="49 Caregiver" sheetId="3" r:id="rId3"/>
-    <sheet name="1030 Caregiver" sheetId="7" r:id="rId4"/>
-    <sheet name="DELETED ITEMS" sheetId="5" r:id="rId5"/>
-    <sheet name="Scratch" sheetId="8" r:id="rId6"/>
+    <sheet name="Caregiver" sheetId="9" r:id="rId3"/>
+    <sheet name="49 Caregiver" sheetId="3" r:id="rId4"/>
+    <sheet name="1030 Caregiver" sheetId="7" r:id="rId5"/>
+    <sheet name="DELETED ITEMS" sheetId="5" r:id="rId6"/>
+    <sheet name="Scratch" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'10-30'!$A$1:$G$81</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'1030 Caregiver'!$A$1:$G$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'1030 Caregiver'!$A$1:$G$81</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'4-9'!$A$1:$G$81</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'49 Caregiver'!$A$1:$G$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'49 Caregiver'!$A$1:$G$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Caregiver!$A$1:$G$81</definedName>
     <definedName name="Z_3D544592_D893_4912_8A4C_A9212B9C1328_.wvu.FilterData" localSheetId="1" hidden="1">'10-30'!$A$1:$G$81</definedName>
-    <definedName name="Z_3D544592_D893_4912_8A4C_A9212B9C1328_.wvu.FilterData" localSheetId="3" hidden="1">'1030 Caregiver'!$A$1:$G$81</definedName>
+    <definedName name="Z_3D544592_D893_4912_8A4C_A9212B9C1328_.wvu.FilterData" localSheetId="4" hidden="1">'1030 Caregiver'!$A$1:$G$81</definedName>
     <definedName name="Z_3D544592_D893_4912_8A4C_A9212B9C1328_.wvu.FilterData" localSheetId="0" hidden="1">'4-9'!$A$1:$G$81</definedName>
-    <definedName name="Z_3D544592_D893_4912_8A4C_A9212B9C1328_.wvu.FilterData" localSheetId="2" hidden="1">'49 Caregiver'!$A$1:$G$81</definedName>
+    <definedName name="Z_3D544592_D893_4912_8A4C_A9212B9C1328_.wvu.FilterData" localSheetId="3" hidden="1">'49 Caregiver'!$A$1:$G$81</definedName>
+    <definedName name="Z_3D544592_D893_4912_8A4C_A9212B9C1328_.wvu.FilterData" localSheetId="2" hidden="1">Caregiver!$A$1:$G$81</definedName>
     <definedName name="Z_7283F7E0_0B2D_4F5B_B955_ADB97BAFC841_.wvu.FilterData" localSheetId="1" hidden="1">'10-30'!$A$1:$G$81</definedName>
-    <definedName name="Z_7283F7E0_0B2D_4F5B_B955_ADB97BAFC841_.wvu.FilterData" localSheetId="3" hidden="1">'1030 Caregiver'!$A$1:$G$81</definedName>
+    <definedName name="Z_7283F7E0_0B2D_4F5B_B955_ADB97BAFC841_.wvu.FilterData" localSheetId="4" hidden="1">'1030 Caregiver'!$A$1:$G$81</definedName>
     <definedName name="Z_7283F7E0_0B2D_4F5B_B955_ADB97BAFC841_.wvu.FilterData" localSheetId="0" hidden="1">'4-9'!$A$1:$G$81</definedName>
-    <definedName name="Z_7283F7E0_0B2D_4F5B_B955_ADB97BAFC841_.wvu.FilterData" localSheetId="2" hidden="1">'49 Caregiver'!$A$1:$G$81</definedName>
+    <definedName name="Z_7283F7E0_0B2D_4F5B_B955_ADB97BAFC841_.wvu.FilterData" localSheetId="3" hidden="1">'49 Caregiver'!$A$1:$G$81</definedName>
+    <definedName name="Z_7283F7E0_0B2D_4F5B_B955_ADB97BAFC841_.wvu.FilterData" localSheetId="2" hidden="1">Caregiver!$A$1:$G$81</definedName>
     <definedName name="Z_E395C88E_3BA8_B344_A1BC_A46BF8755BD3_.wvu.Cols" localSheetId="1" hidden="1">'10-30'!$C:$C</definedName>
-    <definedName name="Z_E395C88E_3BA8_B344_A1BC_A46BF8755BD3_.wvu.Cols" localSheetId="3" hidden="1">'1030 Caregiver'!$C:$C</definedName>
+    <definedName name="Z_E395C88E_3BA8_B344_A1BC_A46BF8755BD3_.wvu.Cols" localSheetId="4" hidden="1">'1030 Caregiver'!$C:$C</definedName>
     <definedName name="Z_E395C88E_3BA8_B344_A1BC_A46BF8755BD3_.wvu.Cols" localSheetId="0" hidden="1">'4-9'!$C:$C</definedName>
-    <definedName name="Z_E395C88E_3BA8_B344_A1BC_A46BF8755BD3_.wvu.Cols" localSheetId="2" hidden="1">'49 Caregiver'!$C:$C</definedName>
+    <definedName name="Z_E395C88E_3BA8_B344_A1BC_A46BF8755BD3_.wvu.Cols" localSheetId="3" hidden="1">'49 Caregiver'!$C:$C</definedName>
+    <definedName name="Z_E395C88E_3BA8_B344_A1BC_A46BF8755BD3_.wvu.Cols" localSheetId="2" hidden="1">Caregiver!$C:$C</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Microsoft Office User - Personal View" guid="{E395C88E-3BA8-B344-A1BC-A46BF8755BD3}" mergeInterval="0" personalView="1" minimized="1" windowWidth="0" windowHeight="0" activeSheetId="2"/>
+    <customWorkbookView name="XXXXX - Personal View" guid="{7283F7E0-0B2D-4F5B-B955-ADB97BAFC841}" mergeInterval="0" personalView="1" xWindow="52" yWindow="74" windowWidth="1858" windowHeight="946" activeSheetId="1"/>
     <customWorkbookView name="John Williams - Personal View" guid="{3D544592-D893-4912-8A4C-A9212B9C1328}" mergeInterval="0" personalView="1" maximized="1" xWindow="1672" yWindow="-8" windowWidth="1696" windowHeight="1066" activeSheetId="2"/>
-    <customWorkbookView name="XXXXX - Personal View" guid="{7283F7E0-0B2D-4F5B-B955-ADB97BAFC841}" mergeInterval="0" personalView="1" xWindow="52" yWindow="74" windowWidth="1858" windowHeight="946" activeSheetId="1"/>
-    <customWorkbookView name="Microsoft Office User - Personal View" guid="{E395C88E-3BA8-B344-A1BC-A46BF8755BD3}" mergeInterval="0" personalView="1" minimized="1" windowWidth="0" windowHeight="0" activeSheetId="2"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -62,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1865" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2208" uniqueCount="622">
   <si>
     <t>REF</t>
   </si>
@@ -1741,14 +1746,261 @@
   <si>
     <t>q0236</t>
   </si>
+  <si>
+    <t>QT108</t>
+  </si>
+  <si>
+    <t>QT107</t>
+  </si>
+  <si>
+    <t>QT106</t>
+  </si>
+  <si>
+    <t>QT105</t>
+  </si>
+  <si>
+    <t>QT103</t>
+  </si>
+  <si>
+    <t>QT101</t>
+  </si>
+  <si>
+    <t>QT100</t>
+  </si>
+  <si>
+    <t>QT98</t>
+  </si>
+  <si>
+    <t>QT97</t>
+  </si>
+  <si>
+    <t>QT96</t>
+  </si>
+  <si>
+    <t>QT95</t>
+  </si>
+  <si>
+    <t>QT94</t>
+  </si>
+  <si>
+    <t>QT93</t>
+  </si>
+  <si>
+    <t>QT92</t>
+  </si>
+  <si>
+    <t>QT91</t>
+  </si>
+  <si>
+    <t>QT89</t>
+  </si>
+  <si>
+    <t>QT87</t>
+  </si>
+  <si>
+    <t>QT86</t>
+  </si>
+  <si>
+    <t>QT85</t>
+  </si>
+  <si>
+    <t>QT83</t>
+  </si>
+  <si>
+    <t>QT81</t>
+  </si>
+  <si>
+    <t>QT79</t>
+  </si>
+  <si>
+    <t>QT78</t>
+  </si>
+  <si>
+    <t>QT77</t>
+  </si>
+  <si>
+    <t>QT76</t>
+  </si>
+  <si>
+    <t>QT75</t>
+  </si>
+  <si>
+    <t>QT74</t>
+  </si>
+  <si>
+    <t>QT73</t>
+  </si>
+  <si>
+    <t>QT72</t>
+  </si>
+  <si>
+    <t>QT71</t>
+  </si>
+  <si>
+    <t>QT69</t>
+  </si>
+  <si>
+    <t>QT68</t>
+  </si>
+  <si>
+    <t>QT67</t>
+  </si>
+  <si>
+    <t>QT66</t>
+  </si>
+  <si>
+    <t>QT65</t>
+  </si>
+  <si>
+    <t>QT62</t>
+  </si>
+  <si>
+    <t>QT60</t>
+  </si>
+  <si>
+    <t>QT57</t>
+  </si>
+  <si>
+    <t>QT56</t>
+  </si>
+  <si>
+    <t>QT55</t>
+  </si>
+  <si>
+    <t>QT54</t>
+  </si>
+  <si>
+    <t>QT51</t>
+  </si>
+  <si>
+    <t>QT50</t>
+  </si>
+  <si>
+    <t>QT49</t>
+  </si>
+  <si>
+    <t>QT48</t>
+  </si>
+  <si>
+    <t>QT47</t>
+  </si>
+  <si>
+    <t>QT46</t>
+  </si>
+  <si>
+    <t>QT45</t>
+  </si>
+  <si>
+    <t>QT43</t>
+  </si>
+  <si>
+    <t>QT41</t>
+  </si>
+  <si>
+    <t>QT39</t>
+  </si>
+  <si>
+    <t>QT37</t>
+  </si>
+  <si>
+    <t>QT35</t>
+  </si>
+  <si>
+    <t>QT34</t>
+  </si>
+  <si>
+    <t>QT33</t>
+  </si>
+  <si>
+    <t>QT32</t>
+  </si>
+  <si>
+    <t>QT31</t>
+  </si>
+  <si>
+    <t>QT30</t>
+  </si>
+  <si>
+    <t>QT28</t>
+  </si>
+  <si>
+    <t>QT27</t>
+  </si>
+  <si>
+    <t>QT26</t>
+  </si>
+  <si>
+    <t>QT25</t>
+  </si>
+  <si>
+    <t>QT23</t>
+  </si>
+  <si>
+    <t>QT21</t>
+  </si>
+  <si>
+    <t>QT20</t>
+  </si>
+  <si>
+    <t>QT19</t>
+  </si>
+  <si>
+    <t>QT18</t>
+  </si>
+  <si>
+    <t>QT17</t>
+  </si>
+  <si>
+    <t>QT15</t>
+  </si>
+  <si>
+    <t>QT14</t>
+  </si>
+  <si>
+    <t>QT13</t>
+  </si>
+  <si>
+    <t>QT12</t>
+  </si>
+  <si>
+    <t>QT11</t>
+  </si>
+  <si>
+    <t>QT10</t>
+  </si>
+  <si>
+    <t>QT7</t>
+  </si>
+  <si>
+    <t>QT6</t>
+  </si>
+  <si>
+    <t>QT5</t>
+  </si>
+  <si>
+    <t>QT4</t>
+  </si>
+  <si>
+    <t>QT2</t>
+  </si>
+  <si>
+    <t>QT1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2023,13 +2275,13 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2038,34 +2290,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2074,307 +2326,312 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -4458,11 +4715,10 @@
     <sortCondition sortBy="cellColor" ref="G2:G111" dxfId="2"/>
   </sortState>
   <customSheetViews>
-    <customSheetView guid="{3D544592-D893-4912-8A4C-A9212B9C1328}" fitToPage="1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1:L1048576"/>
+    <customSheetView guid="{E395C88E-3BA8-B344-A1BC-A46BF8755BD3}" fitToPage="1" hiddenColumns="1" topLeftCell="A55">
+      <selection activeCell="F78" sqref="F78"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <pageSetup scale="80" fitToHeight="4" orientation="landscape" r:id="rId1"/>
+      <pageSetup scale="64" fitToHeight="4" orientation="landscape" r:id="rId1"/>
     </customSheetView>
     <customSheetView guid="{7283F7E0-0B2D-4F5B-B955-ADB97BAFC841}" fitToPage="1" showAutoFilter="1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
@@ -4475,13 +4731,14 @@
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{E395C88E-3BA8-B344-A1BC-A46BF8755BD3}" fitToPage="1" hiddenColumns="1" topLeftCell="A55">
-      <selection activeCell="F78" sqref="F78"/>
+    <customSheetView guid="{3D544592-D893-4912-8A4C-A9212B9C1328}" fitToPage="1">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1:L1048576"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <pageSetup scale="64" fitToHeight="4" orientation="landscape" r:id="rId3"/>
+      <pageSetup scale="80" fitToHeight="4" orientation="landscape" r:id="rId3"/>
     </customSheetView>
   </customSheetViews>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="80" fitToHeight="4" orientation="landscape" r:id="rId4"/>
 </worksheet>
@@ -6264,6 +6521,1771 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9257C3D-DA87-A847-8AB9-4C5885F608C5}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="186" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1:G1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5.6640625" style="31" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" style="39" customWidth="1"/>
+    <col min="3" max="3" width="7.5" style="26" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" style="39" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="86.5" style="55" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="31"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="131" customFormat="1" ht="18" thickBot="1">
+      <c r="A1" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="102" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="103" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="104" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="105" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="106" t="s">
+        <v>294</v>
+      </c>
+      <c r="G1" s="107" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="17">
+      <c r="A2" s="127">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="109" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="24">
+        <v>1</v>
+      </c>
+      <c r="F2" s="70" t="s">
+        <v>621</v>
+      </c>
+      <c r="G2" s="51" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="17">
+      <c r="A3" s="128">
+        <v>2</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="21">
+        <v>2</v>
+      </c>
+      <c r="F3" s="68" t="s">
+        <v>620</v>
+      </c>
+      <c r="G3" s="52" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17">
+      <c r="A4" s="128">
+        <v>4</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="21">
+        <v>4</v>
+      </c>
+      <c r="F4" s="68" t="s">
+        <v>619</v>
+      </c>
+      <c r="G4" s="52" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17">
+      <c r="A5" s="128">
+        <v>5</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="21">
+        <v>5</v>
+      </c>
+      <c r="F5" s="68" t="s">
+        <v>618</v>
+      </c>
+      <c r="G5" s="52" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17">
+      <c r="A6" s="128">
+        <v>6</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="21">
+        <v>6</v>
+      </c>
+      <c r="F6" s="68" t="s">
+        <v>617</v>
+      </c>
+      <c r="G6" s="52" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="17">
+      <c r="A7" s="128">
+        <v>7</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="21">
+        <v>7</v>
+      </c>
+      <c r="F7" s="68" t="s">
+        <v>616</v>
+      </c>
+      <c r="G7" s="52" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="17">
+      <c r="A8" s="128">
+        <v>10</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="97" t="s">
+        <v>192</v>
+      </c>
+      <c r="D8" s="29"/>
+      <c r="E8" s="21">
+        <v>10</v>
+      </c>
+      <c r="F8" s="68" t="s">
+        <v>615</v>
+      </c>
+      <c r="G8" s="52" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="17">
+      <c r="A9" s="128">
+        <v>11</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="97" t="s">
+        <v>192</v>
+      </c>
+      <c r="D9" s="29"/>
+      <c r="E9" s="21">
+        <v>11</v>
+      </c>
+      <c r="F9" s="68" t="s">
+        <v>614</v>
+      </c>
+      <c r="G9" s="52" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="17">
+      <c r="A10" s="128">
+        <v>12</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="97" t="s">
+        <v>192</v>
+      </c>
+      <c r="D10" s="29"/>
+      <c r="E10" s="21">
+        <v>12</v>
+      </c>
+      <c r="F10" s="68" t="s">
+        <v>613</v>
+      </c>
+      <c r="G10" s="52" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18" thickBot="1">
+      <c r="A11" s="129">
+        <v>13</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="135" t="s">
+        <v>192</v>
+      </c>
+      <c r="D11" s="46"/>
+      <c r="E11" s="25">
+        <v>13</v>
+      </c>
+      <c r="F11" s="71" t="s">
+        <v>612</v>
+      </c>
+      <c r="G11" s="130" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="17">
+      <c r="A12" s="127">
+        <v>14</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="132" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="33"/>
+      <c r="E12" s="24">
+        <v>1</v>
+      </c>
+      <c r="F12" s="70" t="s">
+        <v>611</v>
+      </c>
+      <c r="G12" s="51" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="17">
+      <c r="A13" s="128">
+        <v>15</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="29"/>
+      <c r="E13" s="21">
+        <v>2</v>
+      </c>
+      <c r="F13" s="68" t="s">
+        <v>610</v>
+      </c>
+      <c r="G13" s="52" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="17">
+      <c r="A14" s="128">
+        <v>17</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="29"/>
+      <c r="E14" s="21">
+        <v>4</v>
+      </c>
+      <c r="F14" s="68" t="s">
+        <v>609</v>
+      </c>
+      <c r="G14" s="52" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="17">
+      <c r="A15" s="128">
+        <v>18</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="29"/>
+      <c r="E15" s="21">
+        <v>5</v>
+      </c>
+      <c r="F15" s="68" t="s">
+        <v>608</v>
+      </c>
+      <c r="G15" s="52" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="17">
+      <c r="A16" s="128">
+        <v>19</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="29"/>
+      <c r="E16" s="21">
+        <v>6</v>
+      </c>
+      <c r="F16" s="68" t="s">
+        <v>607</v>
+      </c>
+      <c r="G16" s="52" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="17">
+      <c r="A17" s="128">
+        <v>20</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="29"/>
+      <c r="E17" s="21">
+        <v>7</v>
+      </c>
+      <c r="F17" s="68" t="s">
+        <v>606</v>
+      </c>
+      <c r="G17" s="52" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="17">
+      <c r="A18" s="128">
+        <v>21</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="29"/>
+      <c r="E18" s="21">
+        <v>8</v>
+      </c>
+      <c r="F18" s="68" t="s">
+        <v>605</v>
+      </c>
+      <c r="G18" s="52" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="17">
+      <c r="A19" s="128">
+        <v>23</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="29"/>
+      <c r="E19" s="21">
+        <v>10</v>
+      </c>
+      <c r="F19" s="68" t="s">
+        <v>604</v>
+      </c>
+      <c r="G19" s="52" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="17">
+      <c r="A20" s="128">
+        <v>25</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="29"/>
+      <c r="E20" s="21">
+        <v>12</v>
+      </c>
+      <c r="F20" s="68" t="s">
+        <v>603</v>
+      </c>
+      <c r="G20" s="49" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="18" thickBot="1">
+      <c r="A21" s="129">
+        <v>26</v>
+      </c>
+      <c r="B21" s="113" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="114" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="115"/>
+      <c r="E21" s="140">
+        <v>13</v>
+      </c>
+      <c r="F21" s="139" t="s">
+        <v>602</v>
+      </c>
+      <c r="G21" s="53" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="17">
+      <c r="A22" s="127">
+        <v>27</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="132" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="33"/>
+      <c r="E22" s="24">
+        <v>1</v>
+      </c>
+      <c r="F22" s="70" t="s">
+        <v>601</v>
+      </c>
+      <c r="G22" s="51" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="17">
+      <c r="A23" s="128">
+        <v>28</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="29"/>
+      <c r="E23" s="21">
+        <v>2</v>
+      </c>
+      <c r="F23" s="68" t="s">
+        <v>600</v>
+      </c>
+      <c r="G23" s="138" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="17">
+      <c r="A24" s="128">
+        <v>30</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="29"/>
+      <c r="E24" s="21">
+        <v>4</v>
+      </c>
+      <c r="F24" s="68" t="s">
+        <v>599</v>
+      </c>
+      <c r="G24" s="52" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="17">
+      <c r="A25" s="128">
+        <v>31</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="29"/>
+      <c r="E25" s="21">
+        <v>5</v>
+      </c>
+      <c r="F25" s="68" t="s">
+        <v>598</v>
+      </c>
+      <c r="G25" s="52" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="17">
+      <c r="A26" s="128">
+        <v>32</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="29"/>
+      <c r="E26" s="21">
+        <v>6</v>
+      </c>
+      <c r="F26" s="68" t="s">
+        <v>597</v>
+      </c>
+      <c r="G26" s="52" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="17">
+      <c r="A27" s="128">
+        <v>33</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="29"/>
+      <c r="E27" s="21">
+        <v>7</v>
+      </c>
+      <c r="F27" s="68" t="s">
+        <v>596</v>
+      </c>
+      <c r="G27" s="111" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="17">
+      <c r="A28" s="128">
+        <v>34</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="29"/>
+      <c r="E28" s="21">
+        <v>8</v>
+      </c>
+      <c r="F28" s="68" t="s">
+        <v>595</v>
+      </c>
+      <c r="G28" s="52" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="17">
+      <c r="A29" s="128">
+        <v>35</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="29"/>
+      <c r="E29" s="21">
+        <v>9</v>
+      </c>
+      <c r="F29" s="68" t="s">
+        <v>594</v>
+      </c>
+      <c r="G29" s="52" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="17">
+      <c r="A30" s="128">
+        <v>37</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="29"/>
+      <c r="E30" s="21">
+        <v>11</v>
+      </c>
+      <c r="F30" s="68" t="s">
+        <v>593</v>
+      </c>
+      <c r="G30" s="52" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="18" thickBot="1">
+      <c r="A31" s="129">
+        <v>39</v>
+      </c>
+      <c r="B31" s="113" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="114" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="115"/>
+      <c r="E31" s="116">
+        <v>13</v>
+      </c>
+      <c r="F31" s="117" t="s">
+        <v>592</v>
+      </c>
+      <c r="G31" s="53" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="17">
+      <c r="A32" s="127">
+        <v>41</v>
+      </c>
+      <c r="B32" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="132" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="33"/>
+      <c r="E32" s="24">
+        <v>2</v>
+      </c>
+      <c r="F32" s="70" t="s">
+        <v>591</v>
+      </c>
+      <c r="G32" s="51" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="17">
+      <c r="A33" s="128">
+        <v>43</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="29"/>
+      <c r="E33" s="21">
+        <v>4</v>
+      </c>
+      <c r="F33" s="68" t="s">
+        <v>590</v>
+      </c>
+      <c r="G33" s="52" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="17">
+      <c r="A34" s="128">
+        <v>45</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="29"/>
+      <c r="E34" s="21">
+        <v>6</v>
+      </c>
+      <c r="F34" s="68" t="s">
+        <v>589</v>
+      </c>
+      <c r="G34" s="49" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="17">
+      <c r="A35" s="128">
+        <v>46</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="29"/>
+      <c r="E35" s="21">
+        <v>7</v>
+      </c>
+      <c r="F35" s="68" t="s">
+        <v>588</v>
+      </c>
+      <c r="G35" s="52" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="17">
+      <c r="A36" s="128">
+        <v>47</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="29"/>
+      <c r="E36" s="21">
+        <v>8</v>
+      </c>
+      <c r="F36" s="68" t="s">
+        <v>587</v>
+      </c>
+      <c r="G36" s="52" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="34">
+      <c r="A37" s="128">
+        <v>48</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="29"/>
+      <c r="E37" s="21">
+        <v>9</v>
+      </c>
+      <c r="F37" s="68" t="s">
+        <v>586</v>
+      </c>
+      <c r="G37" s="52" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="17">
+      <c r="A38" s="128">
+        <v>49</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" s="29"/>
+      <c r="E38" s="21">
+        <v>10</v>
+      </c>
+      <c r="F38" s="68" t="s">
+        <v>585</v>
+      </c>
+      <c r="G38" s="52" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="17">
+      <c r="A39" s="128">
+        <v>50</v>
+      </c>
+      <c r="B39" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" s="29"/>
+      <c r="E39" s="21">
+        <v>11</v>
+      </c>
+      <c r="F39" s="68" t="s">
+        <v>584</v>
+      </c>
+      <c r="G39" s="52" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="17">
+      <c r="A40" s="128">
+        <v>51</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="29"/>
+      <c r="E40" s="21">
+        <v>12</v>
+      </c>
+      <c r="F40" s="68" t="s">
+        <v>583</v>
+      </c>
+      <c r="G40" s="49" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="18" thickBot="1">
+      <c r="A41" s="129">
+        <v>54</v>
+      </c>
+      <c r="B41" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" s="46"/>
+      <c r="E41" s="25">
+        <v>15</v>
+      </c>
+      <c r="F41" s="71" t="s">
+        <v>582</v>
+      </c>
+      <c r="G41" s="130" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="17">
+      <c r="A42" s="127">
+        <v>55</v>
+      </c>
+      <c r="B42" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" s="132" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="78" t="s">
+        <v>75</v>
+      </c>
+      <c r="E42" s="24">
+        <v>1</v>
+      </c>
+      <c r="F42" s="70" t="s">
+        <v>581</v>
+      </c>
+      <c r="G42" s="51" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="17">
+      <c r="A43" s="128">
+        <v>56</v>
+      </c>
+      <c r="B43" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" s="77" t="s">
+        <v>75</v>
+      </c>
+      <c r="E43" s="21">
+        <v>2</v>
+      </c>
+      <c r="F43" s="68" t="s">
+        <v>580</v>
+      </c>
+      <c r="G43" s="52" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="17">
+      <c r="A44" s="128">
+        <v>57</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" s="77" t="s">
+        <v>75</v>
+      </c>
+      <c r="E44" s="21">
+        <v>3</v>
+      </c>
+      <c r="F44" s="68" t="s">
+        <v>579</v>
+      </c>
+      <c r="G44" s="52" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="17">
+      <c r="A45" s="128">
+        <v>60</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C45" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" s="77" t="s">
+        <v>75</v>
+      </c>
+      <c r="E45" s="21">
+        <v>6</v>
+      </c>
+      <c r="F45" s="68" t="s">
+        <v>578</v>
+      </c>
+      <c r="G45" s="52" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="17">
+      <c r="A46" s="128">
+        <v>62</v>
+      </c>
+      <c r="B46" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46" s="77" t="s">
+        <v>75</v>
+      </c>
+      <c r="E46" s="21">
+        <v>8</v>
+      </c>
+      <c r="F46" s="68" t="s">
+        <v>577</v>
+      </c>
+      <c r="G46" s="52" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="17">
+      <c r="A47" s="128">
+        <v>65</v>
+      </c>
+      <c r="B47" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C47" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" s="77" t="s">
+        <v>75</v>
+      </c>
+      <c r="E47" s="21">
+        <v>11</v>
+      </c>
+      <c r="F47" s="68" t="s">
+        <v>576</v>
+      </c>
+      <c r="G47" s="52" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="17">
+      <c r="A48" s="128">
+        <v>66</v>
+      </c>
+      <c r="B48" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C48" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D48" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="E48" s="21">
+        <v>12</v>
+      </c>
+      <c r="F48" s="68" t="s">
+        <v>575</v>
+      </c>
+      <c r="G48" s="52" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="17">
+      <c r="A49" s="128">
+        <v>67</v>
+      </c>
+      <c r="B49" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="E49" s="21">
+        <v>13</v>
+      </c>
+      <c r="F49" s="68" t="s">
+        <v>574</v>
+      </c>
+      <c r="G49" s="52" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="17">
+      <c r="A50" s="128">
+        <v>68</v>
+      </c>
+      <c r="B50" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="D50" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="E50" s="21">
+        <v>14</v>
+      </c>
+      <c r="F50" s="68" t="s">
+        <v>573</v>
+      </c>
+      <c r="G50" s="52" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="18" thickBot="1">
+      <c r="A51" s="129">
+        <v>69</v>
+      </c>
+      <c r="B51" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="D51" s="126" t="s">
+        <v>83</v>
+      </c>
+      <c r="E51" s="25">
+        <v>15</v>
+      </c>
+      <c r="F51" s="71" t="s">
+        <v>572</v>
+      </c>
+      <c r="G51" s="130" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="17">
+      <c r="A52" s="127">
+        <v>71</v>
+      </c>
+      <c r="B52" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="C52" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="D52" s="33"/>
+      <c r="E52" s="24">
+        <v>2</v>
+      </c>
+      <c r="F52" s="70" t="s">
+        <v>571</v>
+      </c>
+      <c r="G52" s="51" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="17">
+      <c r="A53" s="128">
+        <v>72</v>
+      </c>
+      <c r="B53" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C53" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D53" s="29"/>
+      <c r="E53" s="21">
+        <v>3</v>
+      </c>
+      <c r="F53" s="68" t="s">
+        <v>570</v>
+      </c>
+      <c r="G53" s="52" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" s="5" customFormat="1" ht="17">
+      <c r="A54" s="128">
+        <v>73</v>
+      </c>
+      <c r="B54" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C54" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D54" s="29"/>
+      <c r="E54" s="21">
+        <v>4</v>
+      </c>
+      <c r="F54" s="68" t="s">
+        <v>569</v>
+      </c>
+      <c r="G54" s="52" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="17">
+      <c r="A55" s="128">
+        <v>74</v>
+      </c>
+      <c r="B55" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C55" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D55" s="29"/>
+      <c r="E55" s="21">
+        <v>5</v>
+      </c>
+      <c r="F55" s="68" t="s">
+        <v>568</v>
+      </c>
+      <c r="G55" s="52" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="17">
+      <c r="A56" s="128">
+        <v>75</v>
+      </c>
+      <c r="B56" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C56" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D56" s="29"/>
+      <c r="E56" s="21">
+        <v>6</v>
+      </c>
+      <c r="F56" s="68" t="s">
+        <v>567</v>
+      </c>
+      <c r="G56" s="52" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="17">
+      <c r="A57" s="128">
+        <v>76</v>
+      </c>
+      <c r="B57" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C57" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D57" s="29"/>
+      <c r="E57" s="21">
+        <v>7</v>
+      </c>
+      <c r="F57" s="68" t="s">
+        <v>566</v>
+      </c>
+      <c r="G57" s="52" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="17">
+      <c r="A58" s="128">
+        <v>77</v>
+      </c>
+      <c r="B58" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C58" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D58" s="29"/>
+      <c r="E58" s="21">
+        <v>8</v>
+      </c>
+      <c r="F58" s="68" t="s">
+        <v>565</v>
+      </c>
+      <c r="G58" s="52" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="17">
+      <c r="A59" s="128">
+        <v>78</v>
+      </c>
+      <c r="B59" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C59" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D59" s="29"/>
+      <c r="E59" s="21">
+        <v>9</v>
+      </c>
+      <c r="F59" s="68" t="s">
+        <v>564</v>
+      </c>
+      <c r="G59" s="52" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="17">
+      <c r="A60" s="128">
+        <v>79</v>
+      </c>
+      <c r="B60" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C60" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D60" s="29"/>
+      <c r="E60" s="21">
+        <v>10</v>
+      </c>
+      <c r="F60" s="68" t="s">
+        <v>563</v>
+      </c>
+      <c r="G60" s="52" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="18" thickBot="1">
+      <c r="A61" s="129">
+        <v>81</v>
+      </c>
+      <c r="B61" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="C61" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="D61" s="46"/>
+      <c r="E61" s="25">
+        <v>12</v>
+      </c>
+      <c r="F61" s="71" t="s">
+        <v>562</v>
+      </c>
+      <c r="G61" s="130" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="17">
+      <c r="A62" s="127">
+        <v>83</v>
+      </c>
+      <c r="B62" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="C62" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D62" s="33"/>
+      <c r="E62" s="24">
+        <v>1</v>
+      </c>
+      <c r="F62" s="70" t="s">
+        <v>561</v>
+      </c>
+      <c r="G62" s="51" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="34">
+      <c r="A63" s="128">
+        <v>85</v>
+      </c>
+      <c r="B63" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C63" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63" s="29"/>
+      <c r="E63" s="21">
+        <v>3</v>
+      </c>
+      <c r="F63" s="68" t="s">
+        <v>560</v>
+      </c>
+      <c r="G63" s="49" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="17">
+      <c r="A64" s="128">
+        <v>86</v>
+      </c>
+      <c r="B64" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C64" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="D64" s="29"/>
+      <c r="E64" s="21">
+        <v>4</v>
+      </c>
+      <c r="F64" s="68" t="s">
+        <v>559</v>
+      </c>
+      <c r="G64" s="52" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="17">
+      <c r="A65" s="128">
+        <v>87</v>
+      </c>
+      <c r="B65" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C65" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="D65" s="29"/>
+      <c r="E65" s="21">
+        <v>5</v>
+      </c>
+      <c r="F65" s="68" t="s">
+        <v>558</v>
+      </c>
+      <c r="G65" s="49" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="17">
+      <c r="A66" s="128">
+        <v>89</v>
+      </c>
+      <c r="B66" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C66" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="D66" s="29"/>
+      <c r="E66" s="21">
+        <v>7</v>
+      </c>
+      <c r="F66" s="68" t="s">
+        <v>557</v>
+      </c>
+      <c r="G66" s="52" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="17">
+      <c r="A67" s="128">
+        <v>91</v>
+      </c>
+      <c r="B67" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C67" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D67" s="29"/>
+      <c r="E67" s="21">
+        <v>9</v>
+      </c>
+      <c r="F67" s="68" t="s">
+        <v>556</v>
+      </c>
+      <c r="G67" s="52" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="17">
+      <c r="A68" s="128">
+        <v>92</v>
+      </c>
+      <c r="B68" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C68" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="D68" s="29"/>
+      <c r="E68" s="21">
+        <v>10</v>
+      </c>
+      <c r="F68" s="68" t="s">
+        <v>555</v>
+      </c>
+      <c r="G68" s="52" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="17">
+      <c r="A69" s="128">
+        <v>93</v>
+      </c>
+      <c r="B69" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C69" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="D69" s="29"/>
+      <c r="E69" s="21">
+        <v>11</v>
+      </c>
+      <c r="F69" s="68" t="s">
+        <v>554</v>
+      </c>
+      <c r="G69" s="52" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="17">
+      <c r="A70" s="128">
+        <v>94</v>
+      </c>
+      <c r="B70" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C70" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="D70" s="29"/>
+      <c r="E70" s="21">
+        <v>12</v>
+      </c>
+      <c r="F70" s="68" t="s">
+        <v>553</v>
+      </c>
+      <c r="G70" s="52" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="18" thickBot="1">
+      <c r="A71" s="129">
+        <v>95</v>
+      </c>
+      <c r="B71" s="113" t="s">
+        <v>103</v>
+      </c>
+      <c r="C71" s="114" t="s">
+        <v>26</v>
+      </c>
+      <c r="D71" s="115"/>
+      <c r="E71" s="116">
+        <v>13</v>
+      </c>
+      <c r="F71" s="117" t="s">
+        <v>552</v>
+      </c>
+      <c r="G71" s="53" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="17">
+      <c r="A72" s="127">
+        <v>96</v>
+      </c>
+      <c r="B72" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="C72" s="132" t="s">
+        <v>129</v>
+      </c>
+      <c r="D72" s="33"/>
+      <c r="E72" s="24">
+        <v>1</v>
+      </c>
+      <c r="F72" s="70" t="s">
+        <v>551</v>
+      </c>
+      <c r="G72" s="51" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="17">
+      <c r="A73" s="128">
+        <v>97</v>
+      </c>
+      <c r="B73" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C73" s="97" t="s">
+        <v>129</v>
+      </c>
+      <c r="D73" s="29"/>
+      <c r="E73" s="21">
+        <v>2</v>
+      </c>
+      <c r="F73" s="68" t="s">
+        <v>550</v>
+      </c>
+      <c r="G73" s="52" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="17">
+      <c r="A74" s="128">
+        <v>98</v>
+      </c>
+      <c r="B74" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C74" s="97" t="s">
+        <v>129</v>
+      </c>
+      <c r="D74" s="29"/>
+      <c r="E74" s="21">
+        <v>3</v>
+      </c>
+      <c r="F74" s="68" t="s">
+        <v>549</v>
+      </c>
+      <c r="G74" s="52" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="17">
+      <c r="A75" s="128">
+        <v>100</v>
+      </c>
+      <c r="B75" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C75" s="97" t="s">
+        <v>122</v>
+      </c>
+      <c r="D75" s="29"/>
+      <c r="E75" s="21">
+        <v>5</v>
+      </c>
+      <c r="F75" s="68" t="s">
+        <v>548</v>
+      </c>
+      <c r="G75" s="52" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="17">
+      <c r="A76" s="128">
+        <v>101</v>
+      </c>
+      <c r="B76" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C76" s="97" t="s">
+        <v>122</v>
+      </c>
+      <c r="D76" s="29"/>
+      <c r="E76" s="21">
+        <v>6</v>
+      </c>
+      <c r="F76" s="68" t="s">
+        <v>547</v>
+      </c>
+      <c r="G76" s="52" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="17">
+      <c r="A77" s="128">
+        <v>103</v>
+      </c>
+      <c r="B77" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C77" s="97" t="s">
+        <v>129</v>
+      </c>
+      <c r="D77" s="29"/>
+      <c r="E77" s="21">
+        <v>8</v>
+      </c>
+      <c r="F77" s="68" t="s">
+        <v>546</v>
+      </c>
+      <c r="G77" s="49" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="17">
+      <c r="A78" s="128">
+        <v>105</v>
+      </c>
+      <c r="B78" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C78" s="97" t="s">
+        <v>129</v>
+      </c>
+      <c r="D78" s="29"/>
+      <c r="E78" s="21">
+        <v>10</v>
+      </c>
+      <c r="F78" s="68" t="s">
+        <v>545</v>
+      </c>
+      <c r="G78" s="52" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="17">
+      <c r="A79" s="128">
+        <v>106</v>
+      </c>
+      <c r="B79" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C79" s="97" t="s">
+        <v>129</v>
+      </c>
+      <c r="D79" s="29"/>
+      <c r="E79" s="21">
+        <v>11</v>
+      </c>
+      <c r="F79" s="68" t="s">
+        <v>544</v>
+      </c>
+      <c r="G79" s="52" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="17">
+      <c r="A80" s="128">
+        <v>107</v>
+      </c>
+      <c r="B80" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C80" s="97" t="s">
+        <v>129</v>
+      </c>
+      <c r="D80" s="29"/>
+      <c r="E80" s="21">
+        <v>12</v>
+      </c>
+      <c r="F80" s="68" t="s">
+        <v>543</v>
+      </c>
+      <c r="G80" s="52" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="18" thickBot="1">
+      <c r="A81" s="129">
+        <v>108</v>
+      </c>
+      <c r="B81" s="113" t="s">
+        <v>121</v>
+      </c>
+      <c r="C81" s="114" t="s">
+        <v>129</v>
+      </c>
+      <c r="D81" s="115"/>
+      <c r="E81" s="116">
+        <v>13</v>
+      </c>
+      <c r="F81" s="117" t="s">
+        <v>542</v>
+      </c>
+      <c r="G81" s="53" t="s">
+        <v>293</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="68" fitToHeight="4" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -8027,9 +10049,9 @@
     <sortCondition sortBy="cellColor" ref="G2:G109" dxfId="0"/>
   </sortState>
   <customSheetViews>
-    <customSheetView guid="{3D544592-D893-4912-8A4C-A9212B9C1328}" fitToPage="1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="L1" sqref="G1:L1048576"/>
+    <customSheetView guid="{E395C88E-3BA8-B344-A1BC-A46BF8755BD3}" fitToPage="1" hiddenColumns="1">
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="H109" sqref="H109"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup scale="68" fitToHeight="4" orientation="landscape" r:id="rId1"/>
     </customSheetView>
@@ -8044,27 +10066,27 @@
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{E395C88E-3BA8-B344-A1BC-A46BF8755BD3}" fitToPage="1" hiddenColumns="1">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="H109" sqref="H109"/>
+    <customSheetView guid="{3D544592-D893-4912-8A4C-A9212B9C1328}" fitToPage="1">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="L1" sqref="G1:L1048576"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup scale="68" fitToHeight="4" orientation="landscape" r:id="rId3"/>
     </customSheetView>
   </customSheetViews>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="68" fitToHeight="4" orientation="landscape" r:id="rId4"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F981DB43-5CB2-2645-B4A1-50D990218B29}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="F2" sqref="F2:F81"/>
     </sheetView>
@@ -9822,7 +11844,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:G100"/>
   <sheetViews>
@@ -11881,7 +13903,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F303D1AF-32B3-D847-988A-41E7647C4224}">
   <dimension ref="A1:D80"/>
   <sheetViews>
